--- a/Surveys/03_24_2023_Tracer_Survey.xlsx
+++ b/Surveys/03_24_2023_Tracer_Survey.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\Documents\GitHub\RFID_tracers\Surveys\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tacob\Documents\GitHub\RFID_tracers\Surveys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E5EB87-8E68-4589-B9D7-3C257680BFCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E9A4203-0F19-4822-9C41-B084F49402E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B55ECB15-AC2D-4BB8-9DED-A760F1C0C7A2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B55ECB15-AC2D-4BB8-9DED-A760F1C0C7A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,8 +35,26 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={9F51F8FA-3709-4696-9156-302ACCB0C87E}</author>
+  </authors>
+  <commentList>
+    <comment ref="B53" authorId="0" shapeId="0" xr:uid="{9F51F8FA-3709-4696-9156-302ACCB0C87E}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Possibly incorrect refrence points? I was using 10,7,6, as they were used above and none were provided.</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="35">
   <si>
     <t>Distance from reference point</t>
   </si>
@@ -132,6 +150,15 @@
   </si>
   <si>
     <t>Composite Error</t>
+  </si>
+  <si>
+    <t>No distinct triangle.</t>
+  </si>
+  <si>
+    <t>Nicole Revisit.</t>
+  </si>
+  <si>
+    <t>No Distinct Trianle.</t>
   </si>
 </sst>
 </file>
@@ -356,7 +383,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -416,6 +443,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -434,18 +476,6 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -461,6 +491,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Jones, Korvin (jone4859@vandals.uidaho.edu)" id="{5A27B335-3894-450A-80D8-4C0DDC2545A7}" userId="S::jone4859@vandals.uidaho.edu::2f87b350-750f-45d3-aeff-d82e0159f22e" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -758,12 +794,21 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B53" dT="2023-08-02T22:11:57.93" personId="{5A27B335-3894-450A-80D8-4C0DDC2545A7}" id="{9F51F8FA-3709-4696-9156-302ACCB0C87E}">
+    <text>Possibly incorrect refrence points? I was using 10,7,6, as they were used above and none were provided.</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{515B049B-A9CB-400C-A422-2622B585C781}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{515B049B-A9CB-400C-A422-2622B585C781}">
   <dimension ref="A1:P151"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K145" sqref="K145"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H158" sqref="H158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -772,42 +817,42 @@
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="11.21875" customWidth="1"/>
     <col min="4" max="4" width="10.6640625" customWidth="1"/>
-    <col min="5" max="5" width="26.77734375" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" customWidth="1"/>
-    <col min="7" max="7" width="13.44140625" customWidth="1"/>
-    <col min="9" max="9" width="12.109375" customWidth="1"/>
-    <col min="16" max="16" width="21.21875" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" customWidth="1"/>
+    <col min="15" max="15" width="21.21875" customWidth="1"/>
+    <col min="16" max="16" width="26.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="2" t="s">
+      <c r="C1" s="30"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -822,40 +867,40 @@
       <c r="D2" s="17">
         <v>10</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="27" t="s">
+      <c r="E2" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="F2" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="G2" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="28" t="s">
+      <c r="H2" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="28" t="s">
+      <c r="I2" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="28" t="s">
+      <c r="J2" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="28" t="s">
+      <c r="K2" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="28" t="s">
+      <c r="L2" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="28" t="s">
+      <c r="M2" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="28" t="s">
+      <c r="N2" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="P2" s="28" t="s">
+      <c r="O2" s="21" t="s">
         <v>31</v>
       </c>
+      <c r="P2" s="16"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
@@ -870,17 +915,40 @@
       <c r="D3" s="18">
         <v>2.56</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
+      <c r="E3" s="23">
+        <v>475294.80800000002</v>
+      </c>
+      <c r="F3" s="23">
+        <v>539902.30000000005</v>
+      </c>
+      <c r="G3" s="16">
+        <v>1.2E-2</v>
+      </c>
+      <c r="H3" s="16">
+        <v>0.67</v>
+      </c>
+      <c r="I3" s="16">
+        <v>0.107</v>
+      </c>
+      <c r="J3" s="16">
+        <v>0.183</v>
+      </c>
+      <c r="K3" s="16">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="L3" s="16">
+        <v>1.27</v>
+      </c>
+      <c r="M3" s="16">
+        <v>1.27</v>
+      </c>
+      <c r="N3" s="16">
+        <v>1.575</v>
+      </c>
+      <c r="O3" s="16">
+        <f>(L3^2 + M3^2 + N3^2)^(1/3)</f>
+        <v>1.7869869099668092</v>
+      </c>
       <c r="P3" s="16"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
@@ -896,17 +964,40 @@
       <c r="D4" s="19">
         <v>1.7</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
+      <c r="E4" s="23">
+        <v>475293.712</v>
+      </c>
+      <c r="F4" s="23">
+        <v>539903.46</v>
+      </c>
+      <c r="G4" s="16">
+        <v>0.437</v>
+      </c>
+      <c r="H4" s="16">
+        <v>5.4119999999999999</v>
+      </c>
+      <c r="I4" s="16">
+        <v>2.3450000000000002</v>
+      </c>
+      <c r="J4" s="16">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="K4" s="16">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="L4" s="16">
+        <v>2.3450000000000002</v>
+      </c>
+      <c r="M4" s="16">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="N4" s="16">
+        <v>0.373</v>
+      </c>
+      <c r="O4" s="16">
+        <f>(L4^2 + M4^2 + N4^2)^(1/3)</f>
+        <v>1.7818918991562775</v>
+      </c>
       <c r="P4" s="16"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
@@ -922,20 +1013,43 @@
       <c r="D5" s="19">
         <v>1.99</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="23">
+        <v>475294.30599999998</v>
+      </c>
+      <c r="F5" s="23">
+        <v>539902.65300000005</v>
+      </c>
+      <c r="G5" s="16">
+        <v>1E-3</v>
+      </c>
+      <c r="H5" s="16">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="I5" s="16">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="J5" s="16">
+        <v>3.9E-2</v>
+      </c>
+      <c r="K5" s="16">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="L5">
+        <v>1.014</v>
+      </c>
+      <c r="M5" s="16">
+        <v>1.014</v>
+      </c>
+      <c r="N5" s="16">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="O5" s="16">
+        <f>(L5^2 + M5^2 + N5^2)^(1/3)</f>
+        <v>1.4160760875517604</v>
+      </c>
+      <c r="P5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
@@ -950,20 +1064,43 @@
       <c r="D6" s="19">
         <v>2.23</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="23">
+        <v>475294.40100000001</v>
+      </c>
+      <c r="F6" s="23">
+        <v>539902.37699999998</v>
+      </c>
+      <c r="G6" s="16">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="H6" s="16">
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="I6" s="16">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="J6" s="16">
+        <v>0.105</v>
+      </c>
+      <c r="K6" s="16">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="L6" s="16">
+        <v>1.2629999999999999</v>
+      </c>
+      <c r="M6" s="16">
+        <v>1.2629999999999999</v>
+      </c>
+      <c r="N6" s="16">
+        <v>1.3049999999999999</v>
+      </c>
+      <c r="O6" s="16">
+        <f t="shared" ref="O6:O65" si="0">(L6^2 + M6^2 + N6^2)^(1/3)</f>
+        <v>1.6977320391081767</v>
+      </c>
+      <c r="P6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
@@ -978,17 +1115,40 @@
       <c r="D7" s="19">
         <v>1.21</v>
       </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
+      <c r="E7" s="23">
+        <v>475293.755</v>
+      </c>
+      <c r="F7" s="23">
+        <v>539903.69299999997</v>
+      </c>
+      <c r="G7" s="16">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="H7" s="16">
+        <v>2.4340000000000002</v>
+      </c>
+      <c r="I7" s="16">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="J7" s="16">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="K7" s="16">
+        <v>0.156</v>
+      </c>
+      <c r="L7" s="16">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="M7" s="16">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="N7" s="16">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="O7" s="16">
+        <f t="shared" si="0"/>
+        <v>0.95048359496740198</v>
+      </c>
       <c r="P7" s="16"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
@@ -1004,20 +1164,43 @@
       <c r="D8" s="19">
         <v>1.3</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="23">
+        <v>475293.64799999999</v>
+      </c>
+      <c r="F8" s="23">
+        <v>539903.65300000005</v>
+      </c>
+      <c r="G8" s="16">
+        <v>0.222</v>
+      </c>
+      <c r="H8" s="16">
+        <v>3.5179999999999998</v>
+      </c>
+      <c r="I8" s="16">
+        <v>1.3140000000000001</v>
+      </c>
+      <c r="J8" s="16">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="K8" s="16">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="L8" s="16">
+        <v>1.3140000000000001</v>
+      </c>
+      <c r="M8" s="16">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="N8" s="16">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="O8" s="16">
+        <f t="shared" si="0"/>
+        <v>1.2315838762325604</v>
+      </c>
+      <c r="P8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
@@ -1032,31 +1215,54 @@
       <c r="D9" s="6">
         <v>2.85</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="23">
+        <v>475294.99300000002</v>
+      </c>
+      <c r="F9" s="23">
+        <v>539902.01199999999</v>
+      </c>
+      <c r="G9" s="16">
+        <v>3.1E-2</v>
+      </c>
+      <c r="H9" s="16">
+        <v>1.2629999999999999</v>
+      </c>
+      <c r="I9" s="16">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="J9" s="16">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="K9" s="16">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="L9" s="16">
+        <v>1.5329999999999999</v>
+      </c>
+      <c r="M9" s="16">
+        <v>1.5329999999999999</v>
+      </c>
+      <c r="N9" s="16">
+        <v>2.1349999999999998</v>
+      </c>
+      <c r="O9" s="16">
+        <f t="shared" si="0"/>
+        <v>2.0998036853521609</v>
+      </c>
+      <c r="P9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="16"/>
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
@@ -1064,7 +1270,10 @@
       <c r="L10" s="16"/>
       <c r="M10" s="16"/>
       <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
+      <c r="O10" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="P10" s="16"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
@@ -1080,17 +1289,40 @@
       <c r="D11" s="19">
         <v>2.1</v>
       </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
+      <c r="E11" s="24">
+        <v>475294.70600000001</v>
+      </c>
+      <c r="F11" s="23">
+        <v>539902.93900000001</v>
+      </c>
+      <c r="G11" s="16">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="H11" s="16">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="I11" s="16">
+        <v>0.218</v>
+      </c>
+      <c r="J11" s="16">
+        <v>0.154</v>
+      </c>
+      <c r="K11" s="16">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="L11" s="16">
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="M11" s="16">
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="N11" s="16">
+        <v>0.495</v>
+      </c>
+      <c r="O11" s="16">
+        <f t="shared" si="0"/>
+        <v>0.99066071597155048</v>
+      </c>
       <c r="P11" s="16"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
@@ -1106,17 +1338,40 @@
       <c r="D12" s="19">
         <v>2.17</v>
       </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
+      <c r="E12" s="23">
+        <v>475294.58</v>
+      </c>
+      <c r="F12" s="23">
+        <v>539902.63300000003</v>
+      </c>
+      <c r="G12" s="16">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H12" s="16">
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="I12" s="16">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="J12" s="16">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="K12" s="16">
+        <v>0.04</v>
+      </c>
+      <c r="L12" s="16">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="M12" s="16">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="N12" s="16">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="O12" s="16">
+        <f>(L12^2 + M12^2 + N12^2)^(1/3)</f>
+        <v>1.3869940042784792</v>
+      </c>
       <c r="P12" s="16"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
@@ -1132,17 +1387,40 @@
       <c r="D13" s="19">
         <v>1.24</v>
       </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
+      <c r="E13" s="23">
+        <v>475293.821</v>
+      </c>
+      <c r="F13" s="23">
+        <v>539903.74600000004</v>
+      </c>
+      <c r="G13" s="16">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="H13" s="16">
+        <v>2.181</v>
+      </c>
+      <c r="I13" s="16">
+        <v>0.75700000000000001</v>
+      </c>
+      <c r="J13" s="16">
+        <v>0.186</v>
+      </c>
+      <c r="K13" s="16">
+        <v>0.218</v>
+      </c>
+      <c r="L13" s="16">
+        <v>0.75700000000000001</v>
+      </c>
+      <c r="M13" s="16">
+        <v>0.185</v>
+      </c>
+      <c r="N13" s="16">
+        <v>0.255</v>
+      </c>
+      <c r="O13" s="16">
+        <f>(L13^2 + M13^2 + N13^2)^(1/3)</f>
+        <v>0.87603371707061639</v>
+      </c>
       <c r="P13" s="16"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
@@ -1158,17 +1436,40 @@
       <c r="D14" s="19">
         <v>1.37</v>
       </c>
-      <c r="E14" s="16"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
+      <c r="E14" s="23">
+        <v>475293.88299999997</v>
+      </c>
+      <c r="F14" s="23">
+        <v>539903.66</v>
+      </c>
+      <c r="G14" s="16">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="H14" s="16">
+        <v>2.7440000000000002</v>
+      </c>
+      <c r="I14" s="16">
+        <v>1.105</v>
+      </c>
+      <c r="J14" s="16">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="K14" s="16">
+        <v>0.221</v>
+      </c>
+      <c r="L14" s="16">
+        <v>1.105</v>
+      </c>
+      <c r="M14" s="16">
+        <v>0.161</v>
+      </c>
+      <c r="N14" s="16">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="O14" s="16">
+        <f t="shared" si="0"/>
+        <v>1.0925298251435598</v>
+      </c>
       <c r="P14" s="16"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
@@ -1184,17 +1485,40 @@
       <c r="D15" s="19">
         <v>2</v>
       </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
+      <c r="E15" s="23">
+        <v>475294.65600000002</v>
+      </c>
+      <c r="F15" s="23">
+        <v>539903.07700000005</v>
+      </c>
+      <c r="G15" s="16">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="H15" s="16">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="I15" s="16">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="J15" s="16">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="K15" s="16">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="L15" s="16">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="M15" s="16">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="N15" s="16">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="O15" s="16">
+        <f t="shared" si="0"/>
+        <v>0.79523047521820445</v>
+      </c>
       <c r="P15" s="16"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
@@ -1210,17 +1534,40 @@
       <c r="D16" s="19">
         <v>1.77</v>
       </c>
-      <c r="E16" s="16"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
+      <c r="E16" s="23">
+        <v>475294.11700000003</v>
+      </c>
+      <c r="F16" s="23">
+        <v>539903.39199999999</v>
+      </c>
+      <c r="G16" s="16">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="H16" s="16">
+        <v>4.2060000000000004</v>
+      </c>
+      <c r="I16" s="16">
+        <v>2.0619999999999998</v>
+      </c>
+      <c r="J16" s="16">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="K16" s="16">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="L16" s="16">
+        <v>2.0619999999999998</v>
+      </c>
+      <c r="M16" s="16">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="N16" s="16">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="O16" s="16">
+        <f t="shared" si="0"/>
+        <v>1.6203648266388313</v>
+      </c>
       <c r="P16" s="16"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
@@ -1236,17 +1583,40 @@
       <c r="D17" s="19">
         <v>2.48</v>
       </c>
-      <c r="E17" s="16"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
+      <c r="E17" s="23">
+        <v>475294.42099999997</v>
+      </c>
+      <c r="F17" s="23">
+        <v>539902.04</v>
+      </c>
+      <c r="G17" s="16">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H17" s="16">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="I17" s="16">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="J17" s="16">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="K17" s="16">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="L17" s="16">
+        <v>1.5069999999999999</v>
+      </c>
+      <c r="M17" s="16">
+        <v>1.5069999999999999</v>
+      </c>
+      <c r="N17" s="16">
+        <v>1.855</v>
+      </c>
+      <c r="O17" s="16">
+        <f t="shared" si="0"/>
+        <v>1.9985925931686541</v>
+      </c>
       <c r="P17" s="16"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
@@ -1262,11 +1632,9 @@
       <c r="D18" s="17">
         <v>6</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="16"/>
       <c r="H18" s="16"/>
       <c r="I18" s="16"/>
       <c r="J18" s="16"/>
@@ -1274,8 +1642,13 @@
       <c r="L18" s="16"/>
       <c r="M18" s="16"/>
       <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
+      <c r="O18" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
@@ -1290,17 +1663,40 @@
       <c r="D19" s="6">
         <v>1.33</v>
       </c>
-      <c r="E19" s="16"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
+      <c r="E19" s="23">
+        <v>475292.67200000002</v>
+      </c>
+      <c r="F19" s="23">
+        <v>539902.52800000005</v>
+      </c>
+      <c r="G19" s="16">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="H19" s="16">
+        <v>3.3849999999999998</v>
+      </c>
+      <c r="I19" s="16">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="J19" s="16">
+        <v>1.173</v>
+      </c>
+      <c r="K19" s="16">
+        <v>0.754</v>
+      </c>
+      <c r="L19" s="16">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="M19" s="16">
+        <v>1.69</v>
+      </c>
+      <c r="N19" s="16">
+        <v>1.4510000000000001</v>
+      </c>
+      <c r="O19" s="16">
+        <f t="shared" si="0"/>
+        <v>1.7474569866810961</v>
+      </c>
       <c r="P19" s="16"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
@@ -1316,9 +1712,9 @@
       <c r="D20" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="16"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="16"/>
       <c r="H20" s="16"/>
       <c r="I20" s="16"/>
       <c r="J20" s="16"/>
@@ -1326,7 +1722,10 @@
       <c r="L20" s="16"/>
       <c r="M20" s="16"/>
       <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
+      <c r="O20" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="P20" s="16"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
@@ -1342,9 +1741,9 @@
       <c r="D21" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E21" s="16"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="16"/>
       <c r="H21" s="16"/>
       <c r="I21" s="16"/>
       <c r="J21" s="16"/>
@@ -1352,7 +1751,10 @@
       <c r="L21" s="16"/>
       <c r="M21" s="16"/>
       <c r="N21" s="16"/>
-      <c r="O21" s="16"/>
+      <c r="O21" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="P21" s="16"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
@@ -1368,9 +1770,9 @@
       <c r="D22" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E22" s="16"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="16"/>
       <c r="H22" s="16"/>
       <c r="I22" s="16"/>
       <c r="J22" s="16"/>
@@ -1378,7 +1780,10 @@
       <c r="L22" s="16"/>
       <c r="M22" s="16"/>
       <c r="N22" s="16"/>
-      <c r="O22" s="16"/>
+      <c r="O22" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="P22" s="16"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
@@ -1394,17 +1799,40 @@
       <c r="D23" s="6">
         <v>1.44</v>
       </c>
-      <c r="E23" s="16"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="16"/>
+      <c r="E23" s="23">
+        <v>475292.788</v>
+      </c>
+      <c r="F23" s="23">
+        <v>475292.788</v>
+      </c>
+      <c r="G23" s="16">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="H23" s="16">
+        <v>3.3029999999999999</v>
+      </c>
+      <c r="I23" s="16">
+        <v>0.47699999999999998</v>
+      </c>
+      <c r="J23" s="16">
+        <v>1.252</v>
+      </c>
+      <c r="K23" s="16">
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="L23" s="16">
+        <v>0.47699999999999998</v>
+      </c>
+      <c r="M23" s="16">
+        <v>1.802</v>
+      </c>
+      <c r="N23" s="16">
+        <v>1.472</v>
+      </c>
+      <c r="O23" s="16">
+        <f t="shared" si="0"/>
+        <v>1.7801856684666242</v>
+      </c>
       <c r="P23" s="16"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
@@ -1420,9 +1848,9 @@
       <c r="D24" s="6">
         <v>2.29</v>
       </c>
-      <c r="E24" s="16"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="16"/>
       <c r="H24" s="16"/>
       <c r="I24" s="16"/>
       <c r="J24" s="16"/>
@@ -1431,7 +1859,9 @@
       <c r="M24" s="16"/>
       <c r="N24" s="16"/>
       <c r="O24" s="16"/>
-      <c r="P24" s="16"/>
+      <c r="P24" s="25" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
@@ -1446,20 +1876,43 @@
       <c r="D25" s="6">
         <v>1.37</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="23">
+        <v>475292.61700000003</v>
+      </c>
+      <c r="F25" s="23">
+        <v>539902.51800000004</v>
+      </c>
+      <c r="G25" s="16">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="H25" s="16">
+        <v>4.0140000000000002</v>
+      </c>
+      <c r="I25" s="16">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="J25" s="16">
+        <v>1.103</v>
+      </c>
+      <c r="K25" s="16">
+        <v>1.3260000000000001</v>
+      </c>
+      <c r="L25" s="16">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="M25" s="16">
+        <v>1.69</v>
+      </c>
+      <c r="N25" s="16">
+        <v>1.675</v>
+      </c>
+      <c r="O25" s="16">
+        <f>(L25^2 + M25^2 + N25^2)^(1/3)</f>
+        <v>1.8473962885280588</v>
+      </c>
+      <c r="P25" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="16"/>
-      <c r="P25" s="16"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
@@ -1474,17 +1927,40 @@
       <c r="D26" s="6">
         <v>1.8</v>
       </c>
-      <c r="E26" s="16"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="16"/>
-      <c r="O26" s="16"/>
+      <c r="E26" s="23">
+        <v>475292.69500000001</v>
+      </c>
+      <c r="F26" s="23">
+        <v>539902.55000000005</v>
+      </c>
+      <c r="G26" s="16">
+        <v>1.6919999999999999</v>
+      </c>
+      <c r="H26" s="16">
+        <v>6.3010000000000002</v>
+      </c>
+      <c r="I26" s="16">
+        <v>1.3129999999999999</v>
+      </c>
+      <c r="J26" s="16">
+        <v>2.137</v>
+      </c>
+      <c r="K26" s="16">
+        <v>1.579</v>
+      </c>
+      <c r="L26" s="16">
+        <v>1.3129999999999999</v>
+      </c>
+      <c r="M26" s="16">
+        <v>1.984</v>
+      </c>
+      <c r="N26" s="16">
+        <v>2.5760000000000001</v>
+      </c>
+      <c r="O26" s="16">
+        <f t="shared" si="0"/>
+        <v>2.3081000475259721</v>
+      </c>
       <c r="P26" s="16"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
@@ -1500,17 +1976,40 @@
       <c r="D27" s="6">
         <v>2.79</v>
       </c>
-      <c r="E27" s="16"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="16"/>
-      <c r="O27" s="16"/>
+      <c r="E27" s="23">
+        <v>475293.212</v>
+      </c>
+      <c r="F27" s="23">
+        <v>539902.66399999999</v>
+      </c>
+      <c r="G27" s="16">
+        <v>2.7749999999999999</v>
+      </c>
+      <c r="H27" s="16">
+        <v>9.5359999999999996</v>
+      </c>
+      <c r="I27" s="16">
+        <v>3.9079999999999999</v>
+      </c>
+      <c r="J27" s="16">
+        <v>1.419</v>
+      </c>
+      <c r="K27" s="16">
+        <v>1.321</v>
+      </c>
+      <c r="L27" s="16">
+        <v>3.9079999999999999</v>
+      </c>
+      <c r="M27" s="16">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="N27" s="16">
+        <v>1.42</v>
+      </c>
+      <c r="O27" s="16">
+        <f t="shared" si="0"/>
+        <v>2.590954414383837</v>
+      </c>
       <c r="P27" s="16"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
@@ -1526,9 +2025,9 @@
       <c r="D28" s="6">
         <v>0.88</v>
       </c>
-      <c r="E28" s="16"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="16"/>
       <c r="H28" s="16"/>
       <c r="I28" s="16"/>
       <c r="J28" s="16"/>
@@ -1536,8 +2035,13 @@
       <c r="L28" s="16"/>
       <c r="M28" s="16"/>
       <c r="N28" s="16"/>
-      <c r="O28" s="16"/>
-      <c r="P28" s="16"/>
+      <c r="O28" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P28" s="16" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
@@ -1552,17 +2056,40 @@
       <c r="D29" s="6">
         <v>1.85</v>
       </c>
-      <c r="E29" s="16"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="16"/>
-      <c r="N29" s="16"/>
-      <c r="O29" s="16"/>
+      <c r="E29" s="23">
+        <v>475292.77600000001</v>
+      </c>
+      <c r="F29" s="23">
+        <v>539902.55700000003</v>
+      </c>
+      <c r="G29" s="16">
+        <v>1.5569999999999999</v>
+      </c>
+      <c r="H29" s="16">
+        <v>6.1970000000000001</v>
+      </c>
+      <c r="I29" s="16">
+        <v>1.2070000000000001</v>
+      </c>
+      <c r="J29" s="16">
+        <v>1.413</v>
+      </c>
+      <c r="K29" s="16">
+        <v>2.2029999999999998</v>
+      </c>
+      <c r="L29" s="16">
+        <v>1.2070000000000001</v>
+      </c>
+      <c r="M29" s="16">
+        <v>2.036</v>
+      </c>
+      <c r="N29" s="16">
+        <v>2.5790000000000002</v>
+      </c>
+      <c r="O29" s="16">
+        <f t="shared" si="0"/>
+        <v>2.3054305201676666</v>
+      </c>
       <c r="P29" s="16"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
@@ -1578,17 +2105,40 @@
       <c r="D30" s="6">
         <v>2.1</v>
       </c>
-      <c r="E30" s="16"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="16"/>
-      <c r="N30" s="16"/>
-      <c r="O30" s="16"/>
+      <c r="E30" s="23">
+        <v>475292.99599999998</v>
+      </c>
+      <c r="F30" s="23">
+        <v>539902.62699999998</v>
+      </c>
+      <c r="G30" s="16">
+        <v>1.2569999999999999</v>
+      </c>
+      <c r="H30" s="16">
+        <v>6.351</v>
+      </c>
+      <c r="I30" s="16">
+        <v>2.536</v>
+      </c>
+      <c r="J30" s="16">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="K30" s="16">
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="L30" s="16">
+        <v>2.536</v>
+      </c>
+      <c r="M30" s="16">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="N30" s="16">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="O30" s="16">
+        <f t="shared" si="0"/>
+        <v>1.9591420825367807</v>
+      </c>
       <c r="P30" s="16"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
@@ -1604,17 +2154,40 @@
       <c r="D31" s="6">
         <v>2.08</v>
       </c>
-      <c r="E31" s="16"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
-      <c r="N31" s="16"/>
-      <c r="O31" s="16"/>
+      <c r="E31" s="23">
+        <v>475293.09600000002</v>
+      </c>
+      <c r="F31" s="23">
+        <v>539902.65300000005</v>
+      </c>
+      <c r="G31" s="16">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="H31" s="16">
+        <v>5.3109999999999999</v>
+      </c>
+      <c r="I31" s="16">
+        <v>2.3250000000000002</v>
+      </c>
+      <c r="J31" s="16">
+        <v>0.38</v>
+      </c>
+      <c r="K31" s="16">
+        <v>0.4</v>
+      </c>
+      <c r="L31" s="16">
+        <v>2.3250000000000002</v>
+      </c>
+      <c r="M31" s="16">
+        <v>0.13</v>
+      </c>
+      <c r="N31" s="16">
+        <v>0.41099999999999998</v>
+      </c>
+      <c r="O31" s="16">
+        <f t="shared" si="0"/>
+        <v>1.7749033604728874</v>
+      </c>
       <c r="P31" s="16"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
@@ -1630,17 +2203,40 @@
       <c r="D32" s="6">
         <v>1.87</v>
       </c>
-      <c r="E32" s="16"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="16"/>
-      <c r="N32" s="16"/>
-      <c r="O32" s="16"/>
+      <c r="E32" s="23">
+        <v>475292.74099999998</v>
+      </c>
+      <c r="F32" s="23">
+        <v>539902.55900000001</v>
+      </c>
+      <c r="G32" s="16">
+        <v>1.7669999999999999</v>
+      </c>
+      <c r="H32" s="16">
+        <v>6.5010000000000003</v>
+      </c>
+      <c r="I32" s="16">
+        <v>1.321</v>
+      </c>
+      <c r="J32" s="16">
+        <v>1.5640000000000001</v>
+      </c>
+      <c r="K32" s="16">
+        <v>2.2559999999999998</v>
+      </c>
+      <c r="L32" s="16">
+        <v>1.321</v>
+      </c>
+      <c r="M32" s="16">
+        <v>2.0430000000000001</v>
+      </c>
+      <c r="N32" s="16">
+        <v>2.6749999999999998</v>
+      </c>
+      <c r="O32" s="16">
+        <f t="shared" si="0"/>
+        <v>2.355818687807151</v>
+      </c>
       <c r="P32" s="16"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
@@ -1656,9 +2252,9 @@
       <c r="D33" s="6">
         <v>0.47</v>
       </c>
-      <c r="E33" s="16"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="29"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="16"/>
       <c r="H33" s="16"/>
       <c r="I33" s="16"/>
       <c r="J33" s="16"/>
@@ -1666,8 +2262,13 @@
       <c r="L33" s="16"/>
       <c r="M33" s="16"/>
       <c r="N33" s="16"/>
-      <c r="O33" s="16"/>
-      <c r="P33" s="16"/>
+      <c r="O33" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P33" s="16" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="9">
@@ -1682,9 +2283,9 @@
       <c r="D34" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E34" s="16"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="16"/>
       <c r="H34" s="16"/>
       <c r="I34" s="16"/>
       <c r="J34" s="16"/>
@@ -1692,7 +2293,10 @@
       <c r="L34" s="16"/>
       <c r="M34" s="16"/>
       <c r="N34" s="16"/>
-      <c r="O34" s="16"/>
+      <c r="O34" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="P34" s="16"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
@@ -1708,9 +2312,9 @@
       <c r="D35" s="6">
         <v>1.1499999999999999</v>
       </c>
-      <c r="E35" s="16"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="29"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="16"/>
       <c r="H35" s="16"/>
       <c r="I35" s="16"/>
       <c r="J35" s="16"/>
@@ -1718,8 +2322,13 @@
       <c r="L35" s="16"/>
       <c r="M35" s="16"/>
       <c r="N35" s="16"/>
-      <c r="O35" s="16"/>
-      <c r="P35" s="16"/>
+      <c r="O35" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P35" s="16" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="9">
@@ -1734,17 +2343,40 @@
       <c r="D36" s="6">
         <v>1.52</v>
       </c>
-      <c r="E36" s="16"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="16"/>
-      <c r="L36" s="16"/>
-      <c r="M36" s="16"/>
-      <c r="N36" s="16"/>
-      <c r="O36" s="16"/>
+      <c r="E36" s="23">
+        <v>475292.74099999998</v>
+      </c>
+      <c r="F36" s="23">
+        <v>539902.56000000006</v>
+      </c>
+      <c r="G36" s="16">
+        <v>0.66</v>
+      </c>
+      <c r="H36" s="16">
+        <v>4.1859999999999999</v>
+      </c>
+      <c r="I36" s="16">
+        <v>0.73299999999999998</v>
+      </c>
+      <c r="J36" s="16">
+        <v>0.876</v>
+      </c>
+      <c r="K36" s="16">
+        <v>1.502</v>
+      </c>
+      <c r="L36" s="16">
+        <v>0.73299999999999998</v>
+      </c>
+      <c r="M36" s="16">
+        <v>1.85</v>
+      </c>
+      <c r="N36" s="16">
+        <v>1.8009999999999999</v>
+      </c>
+      <c r="O36" s="16">
+        <f t="shared" si="0"/>
+        <v>1.931281778050848</v>
+      </c>
       <c r="P36" s="16"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
@@ -1760,9 +2392,9 @@
       <c r="D37" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E37" s="16"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="29"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="16"/>
       <c r="H37" s="16"/>
       <c r="I37" s="16"/>
       <c r="J37" s="16"/>
@@ -1770,7 +2402,10 @@
       <c r="L37" s="16"/>
       <c r="M37" s="16"/>
       <c r="N37" s="16"/>
-      <c r="O37" s="16"/>
+      <c r="O37" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="P37" s="16"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
@@ -1786,17 +2421,40 @@
       <c r="D38" s="6">
         <v>2.72</v>
       </c>
-      <c r="E38" s="16"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="16"/>
-      <c r="L38" s="16"/>
-      <c r="M38" s="16"/>
-      <c r="N38" s="16"/>
-      <c r="O38" s="16"/>
+      <c r="E38" s="23">
+        <v>475293.32799999998</v>
+      </c>
+      <c r="F38" s="23">
+        <v>539902.65500000003</v>
+      </c>
+      <c r="G38" s="16">
+        <v>0.92</v>
+      </c>
+      <c r="H38" s="16">
+        <v>8.0079999999999991</v>
+      </c>
+      <c r="I38" s="16">
+        <v>3.641</v>
+      </c>
+      <c r="J38" s="16">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="K38" s="16">
+        <v>0.498</v>
+      </c>
+      <c r="L38" s="16">
+        <v>3.641</v>
+      </c>
+      <c r="M38" s="16">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="N38" s="16">
+        <v>0.505</v>
+      </c>
+      <c r="O38" s="16">
+        <f t="shared" si="0"/>
+        <v>2.3824125196764023</v>
+      </c>
       <c r="P38" s="16"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
@@ -1812,17 +2470,40 @@
       <c r="D39" s="6">
         <v>2.0299999999999998</v>
       </c>
-      <c r="E39" s="16"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="29"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="16"/>
-      <c r="K39" s="16"/>
-      <c r="L39" s="16"/>
-      <c r="M39" s="16"/>
-      <c r="N39" s="16"/>
-      <c r="O39" s="16"/>
+      <c r="E39" s="23">
+        <v>475292.98200000002</v>
+      </c>
+      <c r="F39" s="23">
+        <v>539902.61800000002</v>
+      </c>
+      <c r="G39" s="16">
+        <v>1.095</v>
+      </c>
+      <c r="H39" s="16">
+        <v>5.98</v>
+      </c>
+      <c r="I39" s="16">
+        <v>2.3940000000000001</v>
+      </c>
+      <c r="J39" s="16">
+        <v>0.91100000000000003</v>
+      </c>
+      <c r="K39" s="16">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="L39" s="16">
+        <v>2.3940000000000001</v>
+      </c>
+      <c r="M39" s="16">
+        <v>0.314</v>
+      </c>
+      <c r="N39" s="16">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="O39" s="16">
+        <f t="shared" si="0"/>
+        <v>1.8821087888181927</v>
+      </c>
       <c r="P39" s="16"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
@@ -1838,17 +2519,40 @@
       <c r="D40" s="6">
         <v>1.31</v>
       </c>
-      <c r="E40" s="16"/>
-      <c r="F40" s="29"/>
-      <c r="G40" s="29"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="16"/>
-      <c r="J40" s="16"/>
-      <c r="K40" s="16"/>
-      <c r="L40" s="16"/>
-      <c r="M40" s="16"/>
-      <c r="N40" s="16"/>
-      <c r="O40" s="16"/>
+      <c r="E40" s="23">
+        <v>475292.772</v>
+      </c>
+      <c r="F40" s="23">
+        <v>539902.55900000001</v>
+      </c>
+      <c r="G40" s="16">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="H40" s="16">
+        <v>2.4460000000000002</v>
+      </c>
+      <c r="I40" s="16">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="J40" s="16">
+        <v>0.36</v>
+      </c>
+      <c r="K40" s="16">
+        <v>0.311</v>
+      </c>
+      <c r="L40" s="16">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="M40" s="16">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="N40" s="16">
+        <v>0.372</v>
+      </c>
+      <c r="O40" s="16">
+        <f t="shared" si="0"/>
+        <v>1.0278722531988664</v>
+      </c>
       <c r="P40" s="16"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
@@ -1864,9 +2568,9 @@
       <c r="D41" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E41" s="16"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="29"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="16"/>
       <c r="H41" s="16"/>
       <c r="I41" s="16"/>
       <c r="J41" s="16"/>
@@ -1874,7 +2578,10 @@
       <c r="L41" s="16"/>
       <c r="M41" s="16"/>
       <c r="N41" s="16"/>
-      <c r="O41" s="16"/>
+      <c r="O41" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="P41" s="16"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
@@ -1890,9 +2597,9 @@
       <c r="D42" s="6">
         <v>1.96</v>
       </c>
-      <c r="E42" s="16"/>
-      <c r="F42" s="29"/>
-      <c r="G42" s="29"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="16"/>
       <c r="H42" s="16"/>
       <c r="I42" s="16"/>
       <c r="J42" s="16"/>
@@ -1900,8 +2607,13 @@
       <c r="L42" s="16"/>
       <c r="M42" s="16"/>
       <c r="N42" s="16"/>
-      <c r="O42" s="16"/>
-      <c r="P42" s="16"/>
+      <c r="O42" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P42" s="16" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="7">
@@ -1916,9 +2628,9 @@
       <c r="D43" s="6">
         <v>1.26</v>
       </c>
-      <c r="E43" s="16"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="29"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="16"/>
       <c r="H43" s="16"/>
       <c r="I43" s="16"/>
       <c r="J43" s="16"/>
@@ -1926,8 +2638,13 @@
       <c r="L43" s="16"/>
       <c r="M43" s="16"/>
       <c r="N43" s="16"/>
-      <c r="O43" s="16"/>
-      <c r="P43" s="16"/>
+      <c r="O43" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P43" s="16" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="7">
@@ -1942,9 +2659,9 @@
       <c r="D44" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E44" s="16"/>
-      <c r="F44" s="29"/>
-      <c r="G44" s="29"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="16"/>
       <c r="H44" s="16"/>
       <c r="I44" s="16"/>
       <c r="J44" s="16"/>
@@ -1952,7 +2669,10 @@
       <c r="L44" s="16"/>
       <c r="M44" s="16"/>
       <c r="N44" s="16"/>
-      <c r="O44" s="16"/>
+      <c r="O44" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="P44" s="16"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
@@ -1968,9 +2688,9 @@
       <c r="D45" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E45" s="16"/>
-      <c r="F45" s="29"/>
-      <c r="G45" s="29"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="16"/>
       <c r="H45" s="16"/>
       <c r="I45" s="16"/>
       <c r="J45" s="16"/>
@@ -1978,7 +2698,10 @@
       <c r="L45" s="16"/>
       <c r="M45" s="16"/>
       <c r="N45" s="16"/>
-      <c r="O45" s="16"/>
+      <c r="O45" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="P45" s="16"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
@@ -1994,9 +2717,9 @@
       <c r="D46" s="6">
         <v>1.22</v>
       </c>
-      <c r="E46" s="16"/>
-      <c r="F46" s="29"/>
-      <c r="G46" s="29"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="16"/>
       <c r="H46" s="16"/>
       <c r="I46" s="16"/>
       <c r="J46" s="16"/>
@@ -2004,8 +2727,13 @@
       <c r="L46" s="16"/>
       <c r="M46" s="16"/>
       <c r="N46" s="16"/>
-      <c r="O46" s="16"/>
-      <c r="P46" s="16"/>
+      <c r="O46" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P46" s="16" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="7">
@@ -2020,9 +2748,9 @@
       <c r="D47" s="6">
         <v>0.75</v>
       </c>
-      <c r="E47" s="16"/>
-      <c r="F47" s="29"/>
-      <c r="G47" s="29"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="16"/>
       <c r="H47" s="16"/>
       <c r="I47" s="16"/>
       <c r="J47" s="16"/>
@@ -2030,8 +2758,13 @@
       <c r="L47" s="16"/>
       <c r="M47" s="16"/>
       <c r="N47" s="16"/>
-      <c r="O47" s="16"/>
-      <c r="P47" s="16"/>
+      <c r="O47" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P47" s="16" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" s="10">
@@ -2046,9 +2779,9 @@
       <c r="D48" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E48" s="16"/>
-      <c r="F48" s="29"/>
-      <c r="G48" s="29"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="16"/>
       <c r="H48" s="16"/>
       <c r="I48" s="16"/>
       <c r="J48" s="16"/>
@@ -2056,7 +2789,10 @@
       <c r="L48" s="16"/>
       <c r="M48" s="16"/>
       <c r="N48" s="16"/>
-      <c r="O48" s="16"/>
+      <c r="O48" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="P48" s="16"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
@@ -2072,9 +2808,9 @@
       <c r="D49" s="6">
         <v>1.03</v>
       </c>
-      <c r="E49" s="16"/>
-      <c r="F49" s="29"/>
-      <c r="G49" s="29"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="16"/>
       <c r="H49" s="16"/>
       <c r="I49" s="16"/>
       <c r="J49" s="16"/>
@@ -2082,8 +2818,13 @@
       <c r="L49" s="16"/>
       <c r="M49" s="16"/>
       <c r="N49" s="16"/>
-      <c r="O49" s="16"/>
-      <c r="P49" s="16"/>
+      <c r="O49" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P49" s="16" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" s="10">
@@ -2098,9 +2839,9 @@
       <c r="D50" s="6">
         <v>0.47</v>
       </c>
-      <c r="E50" s="16"/>
-      <c r="F50" s="29"/>
-      <c r="G50" s="29"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="16"/>
       <c r="H50" s="16"/>
       <c r="I50" s="16"/>
       <c r="J50" s="16"/>
@@ -2108,8 +2849,13 @@
       <c r="L50" s="16"/>
       <c r="M50" s="16"/>
       <c r="N50" s="16"/>
-      <c r="O50" s="16"/>
-      <c r="P50" s="16"/>
+      <c r="O50" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P50" s="16" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" s="10">
@@ -2124,29 +2870,46 @@
       <c r="D51" s="6">
         <v>1.2</v>
       </c>
-      <c r="E51" s="16"/>
-      <c r="F51" s="29"/>
-      <c r="G51" s="29"/>
-      <c r="H51" s="16"/>
-      <c r="I51" s="16"/>
-      <c r="J51" s="16"/>
-      <c r="K51" s="16"/>
+      <c r="E51" s="23">
+        <v>475292.76799999998</v>
+      </c>
+      <c r="F51" s="23">
+        <v>539902.54500000004</v>
+      </c>
+      <c r="G51" s="16">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="H51" s="16">
+        <v>1.6719999999999999</v>
+      </c>
+      <c r="I51" s="16">
+        <v>0.65</v>
+      </c>
+      <c r="J51" s="16">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="K51" s="16">
+        <v>0.19600000000000001</v>
+      </c>
       <c r="L51" s="16"/>
       <c r="M51" s="16"/>
       <c r="N51" s="16"/>
-      <c r="O51" s="16"/>
+      <c r="O51" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="P51" s="16"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A52" s="24" t="s">
+      <c r="A52" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B52" s="24"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="24"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="29"/>
-      <c r="G52" s="29"/>
+      <c r="B52" s="29"/>
+      <c r="C52" s="29"/>
+      <c r="D52" s="29"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="16"/>
       <c r="H52" s="16"/>
       <c r="I52" s="16"/>
       <c r="J52" s="16"/>
@@ -2154,7 +2917,10 @@
       <c r="L52" s="16"/>
       <c r="M52" s="16"/>
       <c r="N52" s="16"/>
-      <c r="O52" s="16"/>
+      <c r="O52" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="P52" s="16"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.3">
@@ -2170,9 +2936,9 @@
       <c r="D53" s="6">
         <v>0.60000000000000009</v>
       </c>
-      <c r="E53" s="16"/>
-      <c r="F53" s="29"/>
-      <c r="G53" s="29"/>
+      <c r="E53" s="23"/>
+      <c r="F53" s="23"/>
+      <c r="G53" s="16"/>
       <c r="H53" s="16"/>
       <c r="I53" s="16"/>
       <c r="J53" s="16"/>
@@ -2180,8 +2946,13 @@
       <c r="L53" s="16"/>
       <c r="M53" s="16"/>
       <c r="N53" s="16"/>
-      <c r="O53" s="16"/>
-      <c r="P53" s="16"/>
+      <c r="O53" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P53" s="16" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
@@ -2196,9 +2967,9 @@
       <c r="D54" s="19">
         <v>0.83</v>
       </c>
-      <c r="E54" s="16"/>
-      <c r="F54" s="29"/>
-      <c r="G54" s="29"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="16"/>
       <c r="H54" s="16"/>
       <c r="I54" s="16"/>
       <c r="J54" s="16"/>
@@ -2206,8 +2977,13 @@
       <c r="L54" s="16"/>
       <c r="M54" s="16"/>
       <c r="N54" s="16"/>
-      <c r="O54" s="16"/>
-      <c r="P54" s="16"/>
+      <c r="O54" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P54" s="16" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" s="5">
@@ -2222,9 +2998,9 @@
       <c r="D55" s="19">
         <v>0.47</v>
       </c>
-      <c r="E55" s="16"/>
-      <c r="F55" s="29"/>
-      <c r="G55" s="29"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="16"/>
       <c r="H55" s="16"/>
       <c r="I55" s="16"/>
       <c r="J55" s="16"/>
@@ -2232,8 +3008,13 @@
       <c r="L55" s="16"/>
       <c r="M55" s="16"/>
       <c r="N55" s="16"/>
-      <c r="O55" s="16"/>
-      <c r="P55" s="16"/>
+      <c r="O55" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P55" s="16" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" s="5">
@@ -2248,9 +3029,9 @@
       <c r="D56" s="6">
         <v>0.68</v>
       </c>
-      <c r="E56" s="16"/>
-      <c r="F56" s="29"/>
-      <c r="G56" s="29"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="16"/>
       <c r="H56" s="16"/>
       <c r="I56" s="16"/>
       <c r="J56" s="16"/>
@@ -2258,8 +3039,13 @@
       <c r="L56" s="16"/>
       <c r="M56" s="16"/>
       <c r="N56" s="16"/>
-      <c r="O56" s="16"/>
-      <c r="P56" s="16"/>
+      <c r="O56" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P56" s="16" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" s="9">
@@ -2274,9 +3060,9 @@
       <c r="D57" s="6">
         <v>0.8</v>
       </c>
-      <c r="E57" s="16"/>
-      <c r="F57" s="29"/>
-      <c r="G57" s="29"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="16"/>
       <c r="H57" s="16"/>
       <c r="I57" s="16"/>
       <c r="J57" s="16"/>
@@ -2284,8 +3070,13 @@
       <c r="L57" s="16"/>
       <c r="M57" s="16"/>
       <c r="N57" s="16"/>
-      <c r="O57" s="16"/>
-      <c r="P57" s="16"/>
+      <c r="O57" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P57" s="16" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58" s="9">
@@ -2300,9 +3091,9 @@
       <c r="D58" s="6">
         <v>0.92</v>
       </c>
-      <c r="E58" s="16"/>
-      <c r="F58" s="29"/>
-      <c r="G58" s="29"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="16"/>
       <c r="H58" s="16"/>
       <c r="I58" s="16"/>
       <c r="J58" s="16"/>
@@ -2310,8 +3101,13 @@
       <c r="L58" s="16"/>
       <c r="M58" s="16"/>
       <c r="N58" s="16"/>
-      <c r="O58" s="16"/>
-      <c r="P58" s="16"/>
+      <c r="O58" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P58" s="16" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59" s="7">
@@ -2326,9 +3122,9 @@
       <c r="D59" s="19">
         <v>0.85</v>
       </c>
-      <c r="E59" s="16"/>
-      <c r="F59" s="29"/>
-      <c r="G59" s="29"/>
+      <c r="E59" s="23"/>
+      <c r="F59" s="23"/>
+      <c r="G59" s="16"/>
       <c r="H59" s="16"/>
       <c r="I59" s="16"/>
       <c r="J59" s="16"/>
@@ -2336,8 +3132,13 @@
       <c r="L59" s="16"/>
       <c r="M59" s="16"/>
       <c r="N59" s="16"/>
-      <c r="O59" s="16"/>
-      <c r="P59" s="16"/>
+      <c r="O59" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P59" s="16" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60" s="7">
@@ -2352,9 +3153,9 @@
       <c r="D60" s="19">
         <v>0.74</v>
       </c>
-      <c r="E60" s="16"/>
-      <c r="F60" s="29"/>
-      <c r="G60" s="29"/>
+      <c r="E60" s="23"/>
+      <c r="F60" s="23"/>
+      <c r="G60" s="16"/>
       <c r="H60" s="16"/>
       <c r="I60" s="16"/>
       <c r="J60" s="16"/>
@@ -2362,8 +3163,13 @@
       <c r="L60" s="16"/>
       <c r="M60" s="16"/>
       <c r="N60" s="16"/>
-      <c r="O60" s="16"/>
-      <c r="P60" s="16"/>
+      <c r="O60" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P60" s="16" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61" s="7">
@@ -2378,9 +3184,9 @@
       <c r="D61" s="19">
         <v>0.38</v>
       </c>
-      <c r="E61" s="16"/>
-      <c r="F61" s="29"/>
-      <c r="G61" s="29"/>
+      <c r="E61" s="23"/>
+      <c r="F61" s="23"/>
+      <c r="G61" s="16"/>
       <c r="H61" s="16"/>
       <c r="I61" s="16"/>
       <c r="J61" s="16"/>
@@ -2388,8 +3194,13 @@
       <c r="L61" s="16"/>
       <c r="M61" s="16"/>
       <c r="N61" s="16"/>
-      <c r="O61" s="16"/>
-      <c r="P61" s="16"/>
+      <c r="O61" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P61" s="16" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62" s="7">
@@ -2404,9 +3215,9 @@
       <c r="D62" s="6">
         <v>0.32</v>
       </c>
-      <c r="E62" s="6"/>
-      <c r="F62" s="29"/>
-      <c r="G62" s="29"/>
+      <c r="E62" s="23"/>
+      <c r="F62" s="23"/>
+      <c r="G62" s="16"/>
       <c r="H62" s="16"/>
       <c r="I62" s="16"/>
       <c r="J62" s="16"/>
@@ -2414,8 +3225,13 @@
       <c r="L62" s="16"/>
       <c r="M62" s="16"/>
       <c r="N62" s="16"/>
-      <c r="O62" s="16"/>
-      <c r="P62" s="16"/>
+      <c r="O62" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P62" s="16" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63" s="7">
@@ -2430,9 +3246,9 @@
       <c r="D63" s="6">
         <v>0.55000000000000004</v>
       </c>
-      <c r="E63" s="6"/>
-      <c r="F63" s="29"/>
-      <c r="G63" s="29"/>
+      <c r="E63" s="23"/>
+      <c r="F63" s="23"/>
+      <c r="G63" s="16"/>
       <c r="H63" s="16"/>
       <c r="I63" s="16"/>
       <c r="J63" s="16"/>
@@ -2440,8 +3256,13 @@
       <c r="L63" s="16"/>
       <c r="M63" s="16"/>
       <c r="N63" s="16"/>
-      <c r="O63" s="16"/>
-      <c r="P63" s="16"/>
+      <c r="O63" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P63" s="16" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64" s="7">
@@ -2456,9 +3277,9 @@
       <c r="D64" s="6">
         <v>0.32</v>
       </c>
-      <c r="E64" s="6"/>
-      <c r="F64" s="29"/>
-      <c r="G64" s="29"/>
+      <c r="E64" s="23"/>
+      <c r="F64" s="23"/>
+      <c r="G64" s="16"/>
       <c r="H64" s="16"/>
       <c r="I64" s="16"/>
       <c r="J64" s="16"/>
@@ -2466,8 +3287,13 @@
       <c r="L64" s="16"/>
       <c r="M64" s="16"/>
       <c r="N64" s="16"/>
-      <c r="O64" s="16"/>
-      <c r="P64" s="16"/>
+      <c r="O64" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P64" s="16" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65" s="7">
@@ -2482,9 +3308,9 @@
       <c r="D65" s="6">
         <v>0.76</v>
       </c>
-      <c r="E65" s="6"/>
-      <c r="F65" s="29"/>
-      <c r="G65" s="29"/>
+      <c r="E65" s="23"/>
+      <c r="F65" s="23"/>
+      <c r="G65" s="16"/>
       <c r="H65" s="16"/>
       <c r="I65" s="16"/>
       <c r="J65" s="16"/>
@@ -2492,42 +3318,47 @@
       <c r="L65" s="16"/>
       <c r="M65" s="16"/>
       <c r="N65" s="16"/>
-      <c r="O65" s="16"/>
-      <c r="P65" s="16"/>
+      <c r="O65" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P65" s="16" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="G66" s="14"/>
       <c r="H66" s="14"/>
-      <c r="I66" s="14"/>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B67" s="21" t="s">
+      <c r="B67" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C67" s="22"/>
-      <c r="D67" s="23"/>
-      <c r="E67" s="2" t="s">
+      <c r="C67" s="27"/>
+      <c r="D67" s="28"/>
+      <c r="E67" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="F67" s="31"/>
+      <c r="G67" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="H67" s="31"/>
+      <c r="I67" s="31"/>
+      <c r="J67" s="31"/>
+      <c r="K67" s="31"/>
+      <c r="L67" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="M67" s="31"/>
+      <c r="N67" s="31"/>
+      <c r="O67" s="31"/>
+      <c r="P67" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F67" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="G67" s="26"/>
-      <c r="H67" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="I67" s="26"/>
-      <c r="J67" s="26"/>
-      <c r="K67" s="26"/>
-      <c r="L67" s="26"/>
-      <c r="M67" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="N67" s="26"/>
-      <c r="O67" s="26"/>
-      <c r="P67" s="26"/>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
@@ -2542,40 +3373,40 @@
       <c r="D68" s="2">
         <v>17</v>
       </c>
-      <c r="E68" s="16"/>
-      <c r="F68" s="27" t="s">
+      <c r="E68" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="G68" s="27" t="s">
+      <c r="F68" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="H68" s="28" t="s">
+      <c r="G68" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="I68" s="28" t="s">
+      <c r="H68" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="J68" s="28" t="s">
+      <c r="I68" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="K68" s="28" t="s">
+      <c r="J68" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="L68" s="28" t="s">
+      <c r="K68" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="M68" s="28" t="s">
+      <c r="L68" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="N68" s="28" t="s">
+      <c r="M68" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="O68" s="28" t="s">
+      <c r="N68" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="P68" s="28" t="s">
+      <c r="O68" s="21" t="s">
         <v>31</v>
       </c>
+      <c r="P68" s="16"/>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A69" s="8">
@@ -2590,9 +3421,9 @@
       <c r="D69" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E69" s="16"/>
-      <c r="F69" s="29"/>
-      <c r="G69" s="29"/>
+      <c r="E69" s="23"/>
+      <c r="F69" s="23"/>
+      <c r="G69" s="16"/>
       <c r="H69" s="16"/>
       <c r="I69" s="16"/>
       <c r="J69" s="16"/>
@@ -2616,20 +3447,34 @@
       <c r="D70" s="6">
         <v>1.4</v>
       </c>
-      <c r="E70" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F70" s="29"/>
-      <c r="G70" s="29"/>
-      <c r="H70" s="16"/>
-      <c r="I70" s="16"/>
-      <c r="J70" s="16"/>
-      <c r="K70" s="16"/>
+      <c r="E70" s="23">
+        <v>475232.30200000003</v>
+      </c>
+      <c r="F70" s="23">
+        <v>539954.06000000006</v>
+      </c>
+      <c r="G70" s="16">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="H70" s="16">
+        <v>0.442</v>
+      </c>
+      <c r="I70" s="16">
+        <v>0.126</v>
+      </c>
+      <c r="J70" s="16">
+        <v>0.129</v>
+      </c>
+      <c r="K70" s="16">
+        <v>0.128</v>
+      </c>
       <c r="L70" s="16"/>
       <c r="M70" s="16"/>
       <c r="N70" s="16"/>
       <c r="O70" s="16"/>
-      <c r="P70" s="16"/>
+      <c r="P70" s="6" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71" s="5">
@@ -2644,9 +3489,9 @@
       <c r="D71" s="6">
         <v>0.95</v>
       </c>
-      <c r="E71" s="16"/>
-      <c r="F71" s="29"/>
-      <c r="G71" s="29"/>
+      <c r="E71" s="23"/>
+      <c r="F71" s="23"/>
+      <c r="G71" s="16"/>
       <c r="H71" s="16"/>
       <c r="I71" s="16"/>
       <c r="J71" s="16"/>
@@ -2655,7 +3500,9 @@
       <c r="M71" s="16"/>
       <c r="N71" s="16"/>
       <c r="O71" s="16"/>
-      <c r="P71" s="16"/>
+      <c r="P71" s="16" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72" s="5">
@@ -2670,13 +3517,27 @@
       <c r="D72" s="6">
         <v>1.06</v>
       </c>
-      <c r="E72" s="16"/>
-      <c r="F72" s="29"/>
-      <c r="G72" s="29"/>
-      <c r="H72" s="16"/>
-      <c r="I72" s="16"/>
-      <c r="J72" s="16"/>
-      <c r="K72" s="16"/>
+      <c r="E72" s="23">
+        <v>475232.72899999999</v>
+      </c>
+      <c r="F72" s="23">
+        <v>475232.72899999999</v>
+      </c>
+      <c r="G72" s="16">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="H72" s="16">
+        <v>1.754</v>
+      </c>
+      <c r="I72" s="16">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="J72" s="16">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="K72" s="16">
+        <v>0.10100000000000001</v>
+      </c>
       <c r="L72" s="16"/>
       <c r="M72" s="16"/>
       <c r="N72" s="16"/>
@@ -2696,13 +3557,27 @@
       <c r="D73" s="6">
         <v>1.0999999999999999</v>
       </c>
-      <c r="E73" s="16"/>
-      <c r="F73" s="29"/>
-      <c r="G73" s="29"/>
-      <c r="H73" s="16"/>
-      <c r="I73" s="16"/>
-      <c r="J73" s="16"/>
-      <c r="K73" s="16"/>
+      <c r="E73" s="23">
+        <v>475232.83600000001</v>
+      </c>
+      <c r="F73" s="23">
+        <v>539954.66200000001</v>
+      </c>
+      <c r="G73" s="16">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="H73" s="16">
+        <v>2.6869999999999998</v>
+      </c>
+      <c r="I73" s="16">
+        <v>1.258</v>
+      </c>
+      <c r="J73" s="16">
+        <v>0.111</v>
+      </c>
+      <c r="K73" s="16">
+        <v>0.113</v>
+      </c>
       <c r="L73" s="16"/>
       <c r="M73" s="16"/>
       <c r="N73" s="16"/>
@@ -2722,13 +3597,27 @@
       <c r="D74" s="6">
         <v>1.26</v>
       </c>
-      <c r="E74" s="16"/>
-      <c r="F74" s="29"/>
-      <c r="G74" s="29"/>
-      <c r="H74" s="16"/>
-      <c r="I74" s="16"/>
-      <c r="J74" s="16"/>
-      <c r="K74" s="16"/>
+      <c r="E74" s="23">
+        <v>475232.47700000001</v>
+      </c>
+      <c r="F74" s="23">
+        <v>539954.59600000002</v>
+      </c>
+      <c r="G74" s="16">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="H74" s="16">
+        <v>1.3120000000000001</v>
+      </c>
+      <c r="I74" s="16">
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="J74" s="16">
+        <v>9.4E-2</v>
+      </c>
+      <c r="K74" s="16">
+        <v>9.6000000000000002E-2</v>
+      </c>
       <c r="L74" s="16"/>
       <c r="M74" s="16"/>
       <c r="N74" s="16"/>
@@ -2748,13 +3637,27 @@
       <c r="D75" s="6">
         <v>1.64</v>
       </c>
-      <c r="E75" s="16"/>
-      <c r="F75" s="29"/>
-      <c r="G75" s="29"/>
-      <c r="H75" s="16"/>
-      <c r="I75" s="16"/>
-      <c r="J75" s="16"/>
-      <c r="K75" s="16"/>
+      <c r="E75" s="23">
+        <v>475232.038</v>
+      </c>
+      <c r="F75" s="23">
+        <v>539954.62699999998</v>
+      </c>
+      <c r="G75" s="16">
+        <v>2E-3</v>
+      </c>
+      <c r="H75" s="16">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="I75" s="16">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="J75" s="16">
+        <v>2.7E-2</v>
+      </c>
+      <c r="K75" s="16">
+        <v>0.123</v>
+      </c>
       <c r="L75" s="16"/>
       <c r="M75" s="16"/>
       <c r="N75" s="16"/>
@@ -2774,13 +3677,27 @@
       <c r="D76" s="6">
         <v>0.63000000000000012</v>
       </c>
-      <c r="E76" s="16"/>
-      <c r="F76" s="29"/>
-      <c r="G76" s="29"/>
-      <c r="H76" s="16"/>
-      <c r="I76" s="16"/>
-      <c r="J76" s="16"/>
-      <c r="K76" s="16"/>
+      <c r="E76" s="23">
+        <v>475233.09499999997</v>
+      </c>
+      <c r="F76" s="23">
+        <v>539954.39599999995</v>
+      </c>
+      <c r="G76" s="16">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="H76" s="16">
+        <v>1.0469999999999999</v>
+      </c>
+      <c r="I76" s="16">
+        <v>0.109</v>
+      </c>
+      <c r="J76" s="16">
+        <v>0.12</v>
+      </c>
+      <c r="K76" s="16">
+        <v>0.42399999999999999</v>
+      </c>
       <c r="L76" s="16"/>
       <c r="M76" s="16"/>
       <c r="N76" s="16"/>
@@ -2800,13 +3717,27 @@
       <c r="D77" s="6">
         <v>1.03</v>
       </c>
-      <c r="E77" s="16"/>
-      <c r="F77" s="30"/>
-      <c r="G77" s="29"/>
-      <c r="H77" s="16"/>
-      <c r="I77" s="16"/>
-      <c r="J77" s="16"/>
-      <c r="K77" s="16"/>
+      <c r="E77" s="24">
+        <v>475232.91200000001</v>
+      </c>
+      <c r="F77" s="23">
+        <v>539954.67700000003</v>
+      </c>
+      <c r="G77" s="16">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H77" s="16">
+        <v>2.6360000000000001</v>
+      </c>
+      <c r="I77" s="16">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="J77" s="16">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="K77" s="16">
+        <v>1.266</v>
+      </c>
       <c r="L77" s="16"/>
       <c r="M77" s="16"/>
       <c r="N77" s="16"/>
@@ -2826,9 +3757,9 @@
       <c r="D78" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E78" s="16"/>
-      <c r="F78" s="29"/>
-      <c r="G78" s="29"/>
+      <c r="E78" s="23"/>
+      <c r="F78" s="23"/>
+      <c r="G78" s="16"/>
       <c r="H78" s="16"/>
       <c r="I78" s="16"/>
       <c r="J78" s="16"/>
@@ -2852,9 +3783,9 @@
       <c r="D79" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E79" s="16"/>
-      <c r="F79" s="29"/>
-      <c r="G79" s="29"/>
+      <c r="E79" s="23"/>
+      <c r="F79" s="23"/>
+      <c r="G79" s="16"/>
       <c r="H79" s="16"/>
       <c r="I79" s="16"/>
       <c r="J79" s="16"/>
@@ -2878,9 +3809,9 @@
       <c r="D80" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E80" s="16"/>
-      <c r="F80" s="29"/>
-      <c r="G80" s="29"/>
+      <c r="E80" s="23"/>
+      <c r="F80" s="23"/>
+      <c r="G80" s="16"/>
       <c r="H80" s="16"/>
       <c r="I80" s="16"/>
       <c r="J80" s="16"/>
@@ -2904,9 +3835,9 @@
       <c r="D81" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E81" s="16"/>
-      <c r="F81" s="29"/>
-      <c r="G81" s="29"/>
+      <c r="E81" s="23"/>
+      <c r="F81" s="23"/>
+      <c r="G81" s="16"/>
       <c r="H81" s="16"/>
       <c r="I81" s="16"/>
       <c r="J81" s="16"/>
@@ -2930,20 +3861,34 @@
       <c r="D82" s="6">
         <v>1.55</v>
       </c>
-      <c r="E82" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F82" s="29"/>
-      <c r="G82" s="29"/>
-      <c r="H82" s="16"/>
-      <c r="I82" s="16"/>
-      <c r="J82" s="16"/>
-      <c r="K82" s="16"/>
+      <c r="E82" s="23">
+        <v>475232.22100000002</v>
+      </c>
+      <c r="F82" s="23">
+        <v>539954.72199999995</v>
+      </c>
+      <c r="G82" s="16">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="H82" s="16">
+        <v>1.6910000000000001</v>
+      </c>
+      <c r="I82" s="16">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="J82" s="16">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="K82" s="16">
+        <v>0.80100000000000005</v>
+      </c>
       <c r="L82" s="16"/>
       <c r="M82" s="16"/>
       <c r="N82" s="16"/>
       <c r="O82" s="16"/>
-      <c r="P82" s="16"/>
+      <c r="P82" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A83" s="7">
@@ -2958,9 +3903,9 @@
       <c r="D83" s="6">
         <v>1.1499999999999999</v>
       </c>
-      <c r="E83" s="16"/>
-      <c r="F83" s="29"/>
-      <c r="G83" s="29"/>
+      <c r="E83" s="23"/>
+      <c r="F83" s="23"/>
+      <c r="G83" s="16"/>
       <c r="H83" s="16"/>
       <c r="I83" s="16"/>
       <c r="J83" s="16"/>
@@ -2969,7 +3914,9 @@
       <c r="M83" s="16"/>
       <c r="N83" s="16"/>
       <c r="O83" s="16"/>
-      <c r="P83" s="16"/>
+      <c r="P83" s="16" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A84" s="7">
@@ -2984,9 +3931,9 @@
       <c r="D84" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E84" s="16"/>
-      <c r="F84" s="29"/>
-      <c r="G84" s="29"/>
+      <c r="E84" s="23"/>
+      <c r="F84" s="23"/>
+      <c r="G84" s="16"/>
       <c r="H84" s="16"/>
       <c r="I84" s="16"/>
       <c r="J84" s="16"/>
@@ -3010,10 +3957,10 @@
       <c r="D85" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E85" s="16"/>
-      <c r="F85" s="29"/>
-      <c r="G85" s="29"/>
-      <c r="H85" s="6"/>
+      <c r="E85" s="23"/>
+      <c r="F85" s="23"/>
+      <c r="G85" s="6"/>
+      <c r="H85" s="16"/>
       <c r="I85" s="16"/>
       <c r="J85" s="16"/>
       <c r="K85" s="16"/>
@@ -3036,13 +3983,27 @@
       <c r="D86" s="6">
         <v>0.76</v>
       </c>
-      <c r="E86" s="16"/>
-      <c r="F86" s="29"/>
-      <c r="G86" s="29"/>
-      <c r="H86" s="16"/>
-      <c r="I86" s="16"/>
-      <c r="J86" s="16"/>
-      <c r="K86" s="16"/>
+      <c r="E86" s="23">
+        <v>475232.99800000002</v>
+      </c>
+      <c r="F86" s="23">
+        <v>539954.43200000003</v>
+      </c>
+      <c r="G86" s="16">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="H86" s="16">
+        <v>1.3580000000000001</v>
+      </c>
+      <c r="I86" s="16">
+        <v>0.153</v>
+      </c>
+      <c r="J86" s="16">
+        <v>0.151</v>
+      </c>
+      <c r="K86" s="16">
+        <v>0.56299999999999994</v>
+      </c>
       <c r="L86" s="16"/>
       <c r="M86" s="16"/>
       <c r="N86" s="16"/>
@@ -3062,9 +4023,9 @@
       <c r="D87" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E87" s="16"/>
-      <c r="F87" s="29"/>
-      <c r="G87" s="29"/>
+      <c r="E87" s="23"/>
+      <c r="F87" s="23"/>
+      <c r="G87" s="16"/>
       <c r="H87" s="16"/>
       <c r="I87" s="16"/>
       <c r="J87" s="16"/>
@@ -3076,17 +4037,15 @@
       <c r="P87" s="16"/>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A88" s="24" t="s">
+      <c r="A88" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B88" s="24"/>
-      <c r="C88" s="24"/>
-      <c r="D88" s="24"/>
-      <c r="E88" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F88" s="29"/>
-      <c r="G88" s="29"/>
+      <c r="B88" s="29"/>
+      <c r="C88" s="29"/>
+      <c r="D88" s="29"/>
+      <c r="E88" s="23"/>
+      <c r="F88" s="23"/>
+      <c r="G88" s="16"/>
       <c r="H88" s="16"/>
       <c r="I88" s="16"/>
       <c r="J88" s="16"/>
@@ -3095,7 +4054,9 @@
       <c r="M88" s="16"/>
       <c r="N88" s="16"/>
       <c r="O88" s="16"/>
-      <c r="P88" s="16"/>
+      <c r="P88" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A89" s="8">
@@ -3110,18 +4071,32 @@
       <c r="D89" s="19">
         <v>2.5500000000000003</v>
       </c>
-      <c r="E89" s="6"/>
-      <c r="F89" s="29"/>
-      <c r="G89" s="29"/>
-      <c r="H89" s="16"/>
-      <c r="I89" s="16"/>
-      <c r="J89" s="16"/>
-      <c r="K89" s="16"/>
+      <c r="E89" s="23">
+        <v>475231.23300000001</v>
+      </c>
+      <c r="F89" s="23">
+        <v>539953.56999999995</v>
+      </c>
+      <c r="G89" s="16">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="H89" s="16">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="I89" s="16">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="J89" s="16">
+        <v>0.111</v>
+      </c>
+      <c r="K89" s="16">
+        <v>5.8000000000000003E-2</v>
+      </c>
       <c r="L89" s="16"/>
       <c r="M89" s="16"/>
       <c r="N89" s="16"/>
       <c r="O89" s="16"/>
-      <c r="P89" s="16"/>
+      <c r="P89" s="6"/>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A90" s="9">
@@ -3136,18 +4111,32 @@
       <c r="D90" s="19">
         <v>1.8</v>
       </c>
-      <c r="E90" s="6"/>
-      <c r="F90" s="29"/>
-      <c r="G90" s="29"/>
-      <c r="H90" s="16"/>
-      <c r="I90" s="16"/>
-      <c r="J90" s="16"/>
-      <c r="K90" s="16"/>
+      <c r="E90" s="23">
+        <v>475231.90700000001</v>
+      </c>
+      <c r="F90" s="23">
+        <v>539953.84400000004</v>
+      </c>
+      <c r="G90" s="16">
+        <v>0</v>
+      </c>
+      <c r="H90" s="16">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="I90" s="16">
+        <v>1.4E-2</v>
+      </c>
+      <c r="J90" s="16">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="K90" s="16">
+        <v>3.1E-2</v>
+      </c>
       <c r="L90" s="16"/>
       <c r="M90" s="16"/>
       <c r="N90" s="16"/>
       <c r="O90" s="16"/>
-      <c r="P90" s="16"/>
+      <c r="P90" s="6"/>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A91" s="9">
@@ -3162,11 +4151,9 @@
       <c r="D91" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E91" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F91" s="29"/>
-      <c r="G91" s="29"/>
+      <c r="E91" s="23"/>
+      <c r="F91" s="23"/>
+      <c r="G91" s="16"/>
       <c r="H91" s="16"/>
       <c r="I91" s="16"/>
       <c r="J91" s="16"/>
@@ -3175,7 +4162,9 @@
       <c r="M91" s="16"/>
       <c r="N91" s="16"/>
       <c r="O91" s="16"/>
-      <c r="P91" s="16"/>
+      <c r="P91" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A92" s="9">
@@ -3190,18 +4179,32 @@
       <c r="D92" s="6">
         <v>2.2600000000000002</v>
       </c>
-      <c r="E92" s="6"/>
-      <c r="F92" s="29"/>
-      <c r="G92" s="29"/>
-      <c r="H92" s="16"/>
-      <c r="I92" s="16"/>
-      <c r="J92" s="16"/>
-      <c r="K92" s="16"/>
+      <c r="E92" s="23">
+        <v>475231.59899999999</v>
+      </c>
+      <c r="F92" s="23">
+        <v>539953.93599999999</v>
+      </c>
+      <c r="G92" s="16">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="H92" s="16">
+        <v>1.208</v>
+      </c>
+      <c r="I92" s="16">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="J92" s="16">
+        <v>3.9E-2</v>
+      </c>
+      <c r="K92" s="16">
+        <v>0.56999999999999995</v>
+      </c>
       <c r="L92" s="16"/>
       <c r="M92" s="16"/>
       <c r="N92" s="16"/>
       <c r="O92" s="16"/>
-      <c r="P92" s="16"/>
+      <c r="P92" s="6"/>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A93" s="9">
@@ -3216,18 +4219,32 @@
       <c r="D93" s="6">
         <v>2.46</v>
       </c>
-      <c r="E93" s="6"/>
-      <c r="F93" s="29"/>
-      <c r="G93" s="29"/>
-      <c r="H93" s="16"/>
-      <c r="I93" s="16"/>
-      <c r="J93" s="16"/>
-      <c r="K93" s="16"/>
+      <c r="E93" s="23">
+        <v>475231.68599999999</v>
+      </c>
+      <c r="F93" s="23">
+        <v>539953.59600000002</v>
+      </c>
+      <c r="G93" s="16">
+        <v>0.158</v>
+      </c>
+      <c r="H93" s="16">
+        <v>2.3620000000000001</v>
+      </c>
+      <c r="I93" s="16">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="J93" s="16">
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="K93" s="16">
+        <v>0.95399999999999996</v>
+      </c>
       <c r="L93" s="16"/>
       <c r="M93" s="16"/>
       <c r="N93" s="16"/>
       <c r="O93" s="16"/>
-      <c r="P93" s="16"/>
+      <c r="P93" s="6"/>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A94" s="7">
@@ -3242,11 +4259,9 @@
       <c r="D94" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E94" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F94" s="29"/>
-      <c r="G94" s="29"/>
+      <c r="E94" s="23"/>
+      <c r="F94" s="23"/>
+      <c r="G94" s="16"/>
       <c r="H94" s="16"/>
       <c r="I94" s="16"/>
       <c r="J94" s="16"/>
@@ -3255,7 +4270,9 @@
       <c r="M94" s="16"/>
       <c r="N94" s="16"/>
       <c r="O94" s="16"/>
-      <c r="P94" s="16"/>
+      <c r="P94" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A95" s="7">
@@ -3270,9 +4287,9 @@
       <c r="D95" s="6">
         <v>2.3800000000000003</v>
       </c>
-      <c r="E95" s="6"/>
-      <c r="F95" s="29"/>
-      <c r="G95" s="29"/>
+      <c r="E95" s="23"/>
+      <c r="F95" s="23"/>
+      <c r="G95" s="16"/>
       <c r="H95" s="16"/>
       <c r="I95" s="16"/>
       <c r="J95" s="16"/>
@@ -3281,7 +4298,9 @@
       <c r="M95" s="16"/>
       <c r="N95" s="16"/>
       <c r="O95" s="16"/>
-      <c r="P95" s="16"/>
+      <c r="P95" s="6" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A96" s="7">
@@ -3296,9 +4315,9 @@
       <c r="D96" s="6">
         <v>2.1900000000000004</v>
       </c>
-      <c r="E96" s="6"/>
-      <c r="F96" s="29"/>
-      <c r="G96" s="29"/>
+      <c r="E96" s="23"/>
+      <c r="F96" s="23"/>
+      <c r="G96" s="16"/>
       <c r="H96" s="16"/>
       <c r="I96" s="16"/>
       <c r="J96" s="16"/>
@@ -3307,7 +4326,9 @@
       <c r="M96" s="16"/>
       <c r="N96" s="16"/>
       <c r="O96" s="16"/>
-      <c r="P96" s="16"/>
+      <c r="P96" s="6" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A97" s="7">
@@ -3322,18 +4343,32 @@
       <c r="D97" s="6">
         <v>2.4900000000000002</v>
       </c>
-      <c r="E97" s="6"/>
-      <c r="F97" s="29"/>
-      <c r="G97" s="29"/>
-      <c r="H97" s="16"/>
-      <c r="I97" s="16"/>
-      <c r="J97" s="16"/>
-      <c r="K97" s="16"/>
+      <c r="E97" s="23">
+        <v>475231.23200000002</v>
+      </c>
+      <c r="F97" s="23">
+        <v>539953.79200000002</v>
+      </c>
+      <c r="G97" s="16">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H97" s="16">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="I97" s="16">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J97" s="16">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="K97" s="16">
+        <v>5.5E-2</v>
+      </c>
       <c r="L97" s="16"/>
       <c r="M97" s="16"/>
       <c r="N97" s="16"/>
       <c r="O97" s="16"/>
-      <c r="P97" s="16"/>
+      <c r="P97" s="6"/>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A98" s="7">
@@ -3348,9 +4383,9 @@
       <c r="D98" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E98" s="6"/>
-      <c r="F98" s="29"/>
-      <c r="G98" s="29"/>
+      <c r="E98" s="23"/>
+      <c r="F98" s="23"/>
+      <c r="G98" s="16"/>
       <c r="H98" s="16"/>
       <c r="I98" s="16"/>
       <c r="J98" s="16"/>
@@ -3359,7 +4394,7 @@
       <c r="M98" s="16"/>
       <c r="N98" s="16"/>
       <c r="O98" s="16"/>
-      <c r="P98" s="16"/>
+      <c r="P98" s="6"/>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A99" s="7">
@@ -3374,9 +4409,9 @@
       <c r="D99" s="6">
         <v>1.9999999999999998</v>
       </c>
-      <c r="E99" s="6"/>
-      <c r="F99" s="29"/>
-      <c r="G99" s="29"/>
+      <c r="E99" s="23"/>
+      <c r="F99" s="23"/>
+      <c r="G99" s="16"/>
       <c r="H99" s="16"/>
       <c r="I99" s="16"/>
       <c r="J99" s="16"/>
@@ -3385,7 +4420,9 @@
       <c r="M99" s="16"/>
       <c r="N99" s="16"/>
       <c r="O99" s="16"/>
-      <c r="P99" s="16"/>
+      <c r="P99" s="6" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A100" s="7">
@@ -3400,9 +4437,9 @@
       <c r="D100" s="6">
         <v>2.0300000000000002</v>
       </c>
-      <c r="E100" s="6"/>
-      <c r="F100" s="29"/>
-      <c r="G100" s="29"/>
+      <c r="E100" s="23"/>
+      <c r="F100" s="23"/>
+      <c r="G100" s="16"/>
       <c r="H100" s="16"/>
       <c r="I100" s="16"/>
       <c r="J100" s="16"/>
@@ -3411,37 +4448,39 @@
       <c r="M100" s="16"/>
       <c r="N100" s="16"/>
       <c r="O100" s="16"/>
-      <c r="P100" s="16"/>
+      <c r="P100" s="6" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A102" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B102" s="21" t="s">
+      <c r="B102" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C102" s="22"/>
-      <c r="D102" s="23"/>
-      <c r="E102" s="2" t="s">
+      <c r="C102" s="27"/>
+      <c r="D102" s="28"/>
+      <c r="E102" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="F102" s="31"/>
+      <c r="G102" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="H102" s="31"/>
+      <c r="I102" s="31"/>
+      <c r="J102" s="31"/>
+      <c r="K102" s="31"/>
+      <c r="L102" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="M102" s="31"/>
+      <c r="N102" s="31"/>
+      <c r="O102" s="31"/>
+      <c r="P102" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F102" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="G102" s="26"/>
-      <c r="H102" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="I102" s="26"/>
-      <c r="J102" s="26"/>
-      <c r="K102" s="26"/>
-      <c r="L102" s="26"/>
-      <c r="M102" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="N102" s="26"/>
-      <c r="O102" s="26"/>
-      <c r="P102" s="26"/>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
@@ -3456,41 +4495,41 @@
       <c r="D103" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E103" s="6" t="s">
+      <c r="E103" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F103" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="G103" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="H103" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="I103" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="J103" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="K103" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="L103" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="M103" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="N103" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="O103" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="P103" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="F103" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="G103" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="H103" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="I103" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="J103" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="K103" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="L103" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="M103" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="N103" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="O103" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="P103" s="28" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.3">
@@ -3506,9 +4545,9 @@
       <c r="D104" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E104" s="16"/>
-      <c r="F104" s="29"/>
-      <c r="G104" s="29"/>
+      <c r="E104" s="23"/>
+      <c r="F104" s="23"/>
+      <c r="G104" s="16"/>
       <c r="H104" s="16"/>
       <c r="I104" s="16"/>
       <c r="J104" s="16"/>
@@ -3532,9 +4571,9 @@
       <c r="D105" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E105" s="16"/>
-      <c r="F105" s="29"/>
-      <c r="G105" s="29"/>
+      <c r="E105" s="23"/>
+      <c r="F105" s="23"/>
+      <c r="G105" s="16"/>
       <c r="H105" s="16"/>
       <c r="I105" s="16"/>
       <c r="J105" s="16"/>
@@ -3558,9 +4597,9 @@
       <c r="D106" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E106" s="16"/>
-      <c r="F106" s="29"/>
-      <c r="G106" s="29"/>
+      <c r="E106" s="23"/>
+      <c r="F106" s="23"/>
+      <c r="G106" s="16"/>
       <c r="H106" s="16"/>
       <c r="I106" s="16"/>
       <c r="J106" s="16"/>
@@ -3584,9 +4623,9 @@
       <c r="D107" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E107" s="16"/>
-      <c r="F107" s="29"/>
-      <c r="G107" s="29"/>
+      <c r="E107" s="23"/>
+      <c r="F107" s="23"/>
+      <c r="G107" s="16"/>
       <c r="H107" s="16"/>
       <c r="I107" s="16"/>
       <c r="J107" s="16"/>
@@ -3610,9 +4649,9 @@
       <c r="D108" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E108" s="16"/>
-      <c r="F108" s="29"/>
-      <c r="G108" s="29"/>
+      <c r="E108" s="23"/>
+      <c r="F108" s="23"/>
+      <c r="G108" s="16"/>
       <c r="H108" s="16"/>
       <c r="I108" s="16"/>
       <c r="J108" s="16"/>
@@ -3636,9 +4675,9 @@
       <c r="D109" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E109" s="16"/>
-      <c r="F109" s="29"/>
-      <c r="G109" s="29"/>
+      <c r="E109" s="23"/>
+      <c r="F109" s="23"/>
+      <c r="G109" s="16"/>
       <c r="H109" s="16"/>
       <c r="I109" s="16"/>
       <c r="J109" s="16"/>
@@ -3662,9 +4701,9 @@
       <c r="D110" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E110" s="16"/>
-      <c r="F110" s="29"/>
-      <c r="G110" s="29"/>
+      <c r="E110" s="23"/>
+      <c r="F110" s="23"/>
+      <c r="G110" s="16"/>
       <c r="H110" s="16"/>
       <c r="I110" s="16"/>
       <c r="J110" s="16"/>
@@ -3688,9 +4727,9 @@
       <c r="D111" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E111" s="16"/>
-      <c r="F111" s="29"/>
-      <c r="G111" s="29"/>
+      <c r="E111" s="23"/>
+      <c r="F111" s="23"/>
+      <c r="G111" s="16"/>
       <c r="H111" s="16"/>
       <c r="I111" s="16"/>
       <c r="J111" s="16"/>
@@ -3714,9 +4753,9 @@
       <c r="D112" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E112" s="16"/>
-      <c r="F112" s="29"/>
-      <c r="G112" s="29"/>
+      <c r="E112" s="23"/>
+      <c r="F112" s="23"/>
+      <c r="G112" s="16"/>
       <c r="H112" s="16"/>
       <c r="I112" s="16"/>
       <c r="J112" s="16"/>
@@ -3740,9 +4779,9 @@
       <c r="D113" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E113" s="16"/>
-      <c r="F113" s="29"/>
-      <c r="G113" s="29"/>
+      <c r="E113" s="23"/>
+      <c r="F113" s="23"/>
+      <c r="G113" s="16"/>
       <c r="H113" s="16"/>
       <c r="I113" s="16"/>
       <c r="J113" s="16"/>
@@ -3766,9 +4805,9 @@
       <c r="D114" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E114" s="16"/>
-      <c r="F114" s="29"/>
-      <c r="G114" s="29"/>
+      <c r="E114" s="23"/>
+      <c r="F114" s="23"/>
+      <c r="G114" s="16"/>
       <c r="H114" s="16"/>
       <c r="I114" s="16"/>
       <c r="J114" s="16"/>
@@ -3792,9 +4831,9 @@
       <c r="D115" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E115" s="16"/>
-      <c r="F115" s="29"/>
-      <c r="G115" s="29"/>
+      <c r="E115" s="23"/>
+      <c r="F115" s="23"/>
+      <c r="G115" s="16"/>
       <c r="H115" s="16"/>
       <c r="I115" s="16"/>
       <c r="J115" s="16"/>
@@ -3818,9 +4857,9 @@
       <c r="D116" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E116" s="16"/>
-      <c r="F116" s="29"/>
-      <c r="G116" s="29"/>
+      <c r="E116" s="23"/>
+      <c r="F116" s="23"/>
+      <c r="G116" s="16"/>
       <c r="H116" s="16"/>
       <c r="I116" s="16"/>
       <c r="J116" s="16"/>
@@ -3844,9 +4883,9 @@
       <c r="D117" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E117" s="16"/>
-      <c r="F117" s="29"/>
-      <c r="G117" s="29"/>
+      <c r="E117" s="23"/>
+      <c r="F117" s="23"/>
+      <c r="G117" s="16"/>
       <c r="H117" s="16"/>
       <c r="I117" s="16"/>
       <c r="J117" s="16"/>
@@ -3870,9 +4909,9 @@
       <c r="D118" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E118" s="16"/>
-      <c r="F118" s="29"/>
-      <c r="G118" s="29"/>
+      <c r="E118" s="23"/>
+      <c r="F118" s="23"/>
+      <c r="G118" s="16"/>
       <c r="H118" s="16"/>
       <c r="I118" s="16"/>
       <c r="J118" s="16"/>
@@ -3896,9 +4935,9 @@
       <c r="D119" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E119" s="16"/>
-      <c r="F119" s="29"/>
-      <c r="G119" s="29"/>
+      <c r="E119" s="23"/>
+      <c r="F119" s="23"/>
+      <c r="G119" s="16"/>
       <c r="H119" s="16"/>
       <c r="I119" s="16"/>
       <c r="J119" s="16"/>
@@ -3922,9 +4961,9 @@
       <c r="D120" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E120" s="16"/>
-      <c r="F120" s="29"/>
-      <c r="G120" s="29"/>
+      <c r="E120" s="23"/>
+      <c r="F120" s="23"/>
+      <c r="G120" s="16"/>
       <c r="H120" s="16"/>
       <c r="I120" s="16"/>
       <c r="J120" s="16"/>
@@ -3939,31 +4978,31 @@
       <c r="A122" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B122" s="21" t="s">
+      <c r="B122" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C122" s="22"/>
-      <c r="D122" s="23"/>
-      <c r="E122" s="2" t="s">
+      <c r="C122" s="27"/>
+      <c r="D122" s="28"/>
+      <c r="E122" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="F122" s="31"/>
+      <c r="G122" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="H122" s="31"/>
+      <c r="I122" s="31"/>
+      <c r="J122" s="31"/>
+      <c r="K122" s="31"/>
+      <c r="L122" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="M122" s="31"/>
+      <c r="N122" s="31"/>
+      <c r="O122" s="31"/>
+      <c r="P122" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F122" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="G122" s="26"/>
-      <c r="H122" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="I122" s="26"/>
-      <c r="J122" s="26"/>
-      <c r="K122" s="26"/>
-      <c r="L122" s="26"/>
-      <c r="M122" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="N122" s="26"/>
-      <c r="O122" s="26"/>
-      <c r="P122" s="26"/>
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
@@ -3978,40 +5017,40 @@
       <c r="D123" s="2">
         <v>28</v>
       </c>
-      <c r="E123" s="6"/>
-      <c r="F123" s="27" t="s">
+      <c r="E123" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="G123" s="27" t="s">
+      <c r="F123" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="H123" s="28" t="s">
+      <c r="G123" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="I123" s="28" t="s">
+      <c r="H123" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="J123" s="28" t="s">
+      <c r="I123" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="K123" s="28" t="s">
+      <c r="J123" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="L123" s="28" t="s">
+      <c r="K123" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="M123" s="28" t="s">
+      <c r="L123" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="N123" s="28" t="s">
+      <c r="M123" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="O123" s="28" t="s">
+      <c r="N123" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="P123" s="28" t="s">
+      <c r="O123" s="21" t="s">
         <v>31</v>
       </c>
+      <c r="P123" s="6"/>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A124" s="3">
@@ -4026,13 +5065,27 @@
       <c r="D124" s="6">
         <v>0.97</v>
       </c>
-      <c r="E124" s="16"/>
-      <c r="F124" s="29"/>
-      <c r="G124" s="29"/>
-      <c r="H124" s="16"/>
-      <c r="I124" s="16"/>
-      <c r="J124" s="16"/>
-      <c r="K124" s="16"/>
+      <c r="E124" s="23">
+        <v>475238.79499999998</v>
+      </c>
+      <c r="F124" s="23">
+        <v>539969.27599999995</v>
+      </c>
+      <c r="G124" s="16">
+        <v>1E-3</v>
+      </c>
+      <c r="H124" s="16">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="I124" s="16">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="J124" s="16">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="K124" s="16">
+        <v>3.5000000000000003E-2</v>
+      </c>
       <c r="L124" s="16"/>
       <c r="M124" s="16"/>
       <c r="N124" s="16"/>
@@ -4052,13 +5105,27 @@
       <c r="D125" s="6">
         <v>0.97</v>
       </c>
-      <c r="E125" s="16"/>
-      <c r="F125" s="29"/>
-      <c r="G125" s="29"/>
-      <c r="H125" s="16"/>
-      <c r="I125" s="16"/>
-      <c r="J125" s="16"/>
-      <c r="K125" s="16"/>
+      <c r="E125" s="23">
+        <v>475238.924</v>
+      </c>
+      <c r="F125" s="23">
+        <v>539968.84499999997</v>
+      </c>
+      <c r="G125" s="16">
+        <v>0</v>
+      </c>
+      <c r="H125" s="16">
+        <v>9.4E-2</v>
+      </c>
+      <c r="I125" s="16">
+        <v>2.3E-2</v>
+      </c>
+      <c r="J125" s="16">
+        <v>2.4E-2</v>
+      </c>
+      <c r="K125" s="16">
+        <v>3.2000000000000001E-2</v>
+      </c>
       <c r="L125" s="16"/>
       <c r="M125" s="16"/>
       <c r="N125" s="16"/>
@@ -4078,13 +5145,27 @@
       <c r="D126" s="6">
         <v>1.1599999999999999</v>
       </c>
-      <c r="E126" s="16"/>
-      <c r="F126" s="29"/>
-      <c r="G126" s="29"/>
-      <c r="H126" s="16"/>
-      <c r="I126" s="16"/>
-      <c r="J126" s="16"/>
-      <c r="K126" s="16"/>
+      <c r="E126" s="23">
+        <v>475238.99699999997</v>
+      </c>
+      <c r="F126" s="23">
+        <v>539969.29500000004</v>
+      </c>
+      <c r="G126" s="16">
+        <v>1E-3</v>
+      </c>
+      <c r="H126" s="16">
+        <v>0.128</v>
+      </c>
+      <c r="I126" s="16">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="J126" s="16">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="K126" s="16">
+        <v>3.4000000000000002E-2</v>
+      </c>
       <c r="L126" s="16"/>
       <c r="M126" s="16"/>
       <c r="N126" s="16"/>
@@ -4104,13 +5185,27 @@
       <c r="D127" s="6">
         <v>0.75</v>
       </c>
-      <c r="E127" s="16"/>
-      <c r="F127" s="29"/>
-      <c r="G127" s="29"/>
-      <c r="H127" s="16"/>
-      <c r="I127" s="16"/>
-      <c r="J127" s="16"/>
-      <c r="K127" s="16"/>
+      <c r="E127" s="23">
+        <v>475238.71600000001</v>
+      </c>
+      <c r="F127" s="23">
+        <v>539968.89300000004</v>
+      </c>
+      <c r="G127" s="16">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H127" s="16">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="I127" s="16">
+        <v>6.2E-2</v>
+      </c>
+      <c r="J127" s="16">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="K127" s="16">
+        <v>7.2999999999999995E-2</v>
+      </c>
       <c r="L127" s="16"/>
       <c r="M127" s="16"/>
       <c r="N127" s="16"/>
@@ -4130,9 +5225,9 @@
       <c r="D128" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E128" s="16"/>
-      <c r="F128" s="29"/>
-      <c r="G128" s="29"/>
+      <c r="E128" s="23"/>
+      <c r="F128" s="23"/>
+      <c r="G128" s="16"/>
       <c r="H128" s="16"/>
       <c r="I128" s="16"/>
       <c r="J128" s="16"/>
@@ -4141,7 +5236,6 @@
       <c r="M128" s="16"/>
       <c r="N128" s="16"/>
       <c r="O128" s="16"/>
-      <c r="P128" s="16"/>
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A129" s="9">
@@ -4156,9 +5250,9 @@
       <c r="D129" s="6">
         <v>0.58000000000000007</v>
       </c>
-      <c r="E129" s="16"/>
-      <c r="F129" s="29"/>
-      <c r="G129" s="29"/>
+      <c r="E129" s="23"/>
+      <c r="F129" s="23"/>
+      <c r="G129" s="16"/>
       <c r="H129" s="16"/>
       <c r="I129" s="16"/>
       <c r="J129" s="16"/>
@@ -4167,7 +5261,9 @@
       <c r="M129" s="16"/>
       <c r="N129" s="16"/>
       <c r="O129" s="16"/>
-      <c r="P129" s="16"/>
+      <c r="P129" s="16" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A130" s="9">
@@ -4182,20 +5278,34 @@
       <c r="D130" s="6">
         <v>1.1099999999999999</v>
       </c>
-      <c r="E130" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F130" s="29"/>
-      <c r="G130" s="29"/>
-      <c r="H130" s="16"/>
-      <c r="I130" s="16"/>
-      <c r="J130" s="16"/>
-      <c r="K130" s="16"/>
+      <c r="E130" s="23">
+        <v>475239.08399999997</v>
+      </c>
+      <c r="F130" s="23">
+        <v>539968.86499999999</v>
+      </c>
+      <c r="G130" s="16">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="H130" s="16">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="I130" s="16">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="J130" s="16">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K130" s="16">
+        <v>9.8000000000000004E-2</v>
+      </c>
       <c r="L130" s="16"/>
       <c r="M130" s="16"/>
       <c r="N130" s="16"/>
       <c r="O130" s="16"/>
-      <c r="P130" s="16"/>
+      <c r="P130" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A131" s="9">
@@ -4210,13 +5320,27 @@
       <c r="D131" s="6">
         <v>0.6399999999999999</v>
       </c>
-      <c r="E131" s="16"/>
-      <c r="F131" s="29"/>
-      <c r="G131" s="29"/>
-      <c r="H131" s="16"/>
-      <c r="I131" s="16"/>
-      <c r="J131" s="16"/>
-      <c r="K131" s="16"/>
+      <c r="E131" s="23">
+        <v>475238.58899999998</v>
+      </c>
+      <c r="F131" s="23">
+        <v>539968.72699999996</v>
+      </c>
+      <c r="G131" s="16">
+        <v>0</v>
+      </c>
+      <c r="H131" s="16">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="I131" s="16">
+        <v>1.2E-2</v>
+      </c>
+      <c r="J131" s="16">
+        <v>1.2E-2</v>
+      </c>
+      <c r="K131" s="16">
+        <v>1.9E-2</v>
+      </c>
       <c r="L131" s="16"/>
       <c r="M131" s="16"/>
       <c r="N131" s="16"/>
@@ -4236,18 +5360,34 @@
       <c r="D132" s="6">
         <v>0.56000000000000005</v>
       </c>
-      <c r="E132" s="16"/>
-      <c r="F132" s="29"/>
-      <c r="G132" s="29"/>
-      <c r="H132" s="16"/>
-      <c r="I132" s="16"/>
-      <c r="J132" s="16"/>
-      <c r="K132" s="16"/>
+      <c r="E132" s="23">
+        <v>475238.603</v>
+      </c>
+      <c r="F132" s="23">
+        <v>539968.83299999998</v>
+      </c>
+      <c r="G132" s="16">
+        <v>1E-3</v>
+      </c>
+      <c r="H132" s="16">
+        <v>0.18</v>
+      </c>
+      <c r="I132" s="16">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="J132" s="16">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="K132" s="16">
+        <v>3.1E-2</v>
+      </c>
       <c r="L132" s="16"/>
       <c r="M132" s="16"/>
       <c r="N132" s="16"/>
       <c r="O132" s="16"/>
-      <c r="P132" s="16"/>
+      <c r="P132" s="16" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A133" s="7">
@@ -4262,9 +5402,9 @@
       <c r="D133" s="6">
         <v>0.6399999999999999</v>
       </c>
-      <c r="E133" s="16"/>
-      <c r="F133" s="29"/>
-      <c r="G133" s="29"/>
+      <c r="E133" s="23"/>
+      <c r="F133" s="23"/>
+      <c r="G133" s="16"/>
       <c r="H133" s="16"/>
       <c r="I133" s="16"/>
       <c r="J133" s="16"/>
@@ -4288,13 +5428,27 @@
       <c r="D134" s="6">
         <v>0.63000000000000012</v>
       </c>
-      <c r="E134" s="16"/>
-      <c r="F134" s="29"/>
-      <c r="G134" s="29"/>
-      <c r="H134" s="16"/>
-      <c r="I134" s="16"/>
-      <c r="J134" s="16"/>
-      <c r="K134" s="16"/>
+      <c r="E134" s="23">
+        <v>475238.603</v>
+      </c>
+      <c r="F134" s="23">
+        <v>539968.83299999998</v>
+      </c>
+      <c r="G134" s="16">
+        <v>1E-3</v>
+      </c>
+      <c r="H134" s="16">
+        <v>0.18</v>
+      </c>
+      <c r="I134" s="16">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="J134" s="16">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="K134" s="16">
+        <v>3.1E-2</v>
+      </c>
       <c r="L134" s="16"/>
       <c r="M134" s="16"/>
       <c r="N134" s="16"/>
@@ -4314,9 +5468,9 @@
       <c r="D135" s="6">
         <v>1.0999999999999999</v>
       </c>
-      <c r="E135" s="16"/>
-      <c r="F135" s="29"/>
-      <c r="G135" s="29"/>
+      <c r="E135" s="23"/>
+      <c r="F135" s="23"/>
+      <c r="G135" s="16"/>
       <c r="H135" s="16"/>
       <c r="I135" s="16"/>
       <c r="J135" s="16"/>
@@ -4325,7 +5479,9 @@
       <c r="M135" s="16"/>
       <c r="N135" s="16"/>
       <c r="O135" s="16"/>
-      <c r="P135" s="16"/>
+      <c r="P135" s="16" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A136" s="10">
@@ -4340,13 +5496,27 @@
       <c r="D136" s="6">
         <v>1.0899999999999999</v>
       </c>
-      <c r="E136" s="16"/>
-      <c r="F136" s="29"/>
-      <c r="G136" s="29"/>
-      <c r="H136" s="16"/>
-      <c r="I136" s="16"/>
-      <c r="J136" s="16"/>
-      <c r="K136" s="16"/>
+      <c r="E136" s="23">
+        <v>475238.973</v>
+      </c>
+      <c r="F136" s="23">
+        <v>539968.424</v>
+      </c>
+      <c r="G136" s="16">
+        <v>0</v>
+      </c>
+      <c r="H136" s="16">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="I136" s="16">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="J136" s="16">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K136" s="16">
+        <v>4.0000000000000001E-3</v>
+      </c>
       <c r="L136" s="16"/>
       <c r="M136" s="16"/>
       <c r="N136" s="16"/>
@@ -4366,9 +5536,9 @@
       <c r="D137" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E137" s="16"/>
-      <c r="F137" s="29"/>
-      <c r="G137" s="29"/>
+      <c r="E137" s="23"/>
+      <c r="F137" s="23"/>
+      <c r="G137" s="16"/>
       <c r="H137" s="16"/>
       <c r="I137" s="16"/>
       <c r="J137" s="16"/>
@@ -4392,9 +5562,9 @@
       <c r="D138" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E138" s="16"/>
-      <c r="F138" s="29"/>
-      <c r="G138" s="29"/>
+      <c r="E138" s="23"/>
+      <c r="F138" s="23"/>
+      <c r="G138" s="16"/>
       <c r="H138" s="16"/>
       <c r="I138" s="16"/>
       <c r="J138" s="16"/>
@@ -4418,9 +5588,9 @@
       <c r="D139" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E139" s="16"/>
-      <c r="F139" s="29"/>
-      <c r="G139" s="29"/>
+      <c r="E139" s="23"/>
+      <c r="F139" s="23"/>
+      <c r="G139" s="16"/>
       <c r="H139" s="16"/>
       <c r="I139" s="16"/>
       <c r="J139" s="16"/>
@@ -4429,20 +5599,20 @@
       <c r="M139" s="16"/>
       <c r="N139" s="16"/>
       <c r="O139" s="16"/>
-      <c r="P139" s="16"/>
+      <c r="P139" s="16" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="140" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A140" s="24" t="s">
+      <c r="A140" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B140" s="24"/>
-      <c r="C140" s="24"/>
-      <c r="D140" s="24"/>
-      <c r="E140" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="F140" s="29"/>
-      <c r="G140" s="29"/>
+      <c r="B140" s="29"/>
+      <c r="C140" s="29"/>
+      <c r="D140" s="29"/>
+      <c r="E140" s="23"/>
+      <c r="F140" s="23"/>
+      <c r="G140" s="16"/>
       <c r="H140" s="16"/>
       <c r="I140" s="16"/>
       <c r="J140" s="16"/>
@@ -4451,7 +5621,9 @@
       <c r="M140" s="16"/>
       <c r="N140" s="16"/>
       <c r="O140" s="16"/>
-      <c r="P140" s="16"/>
+      <c r="P140" s="20" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="141" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A141" s="8">
@@ -4466,9 +5638,9 @@
       <c r="D141" s="6">
         <v>0.64999999999999991</v>
       </c>
-      <c r="E141" s="16"/>
-      <c r="F141" s="29"/>
-      <c r="G141" s="29"/>
+      <c r="E141" s="23"/>
+      <c r="F141" s="23"/>
+      <c r="G141" s="16"/>
       <c r="H141" s="16"/>
       <c r="I141" s="16"/>
       <c r="J141" s="16"/>
@@ -4477,7 +5649,9 @@
       <c r="M141" s="16"/>
       <c r="N141" s="16"/>
       <c r="O141" s="16"/>
-      <c r="P141" s="16"/>
+      <c r="P141" s="16" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A142" s="5">
@@ -4492,13 +5666,27 @@
       <c r="D142" s="6">
         <v>0.72</v>
       </c>
-      <c r="E142" s="16"/>
-      <c r="F142" s="29"/>
-      <c r="G142" s="29"/>
-      <c r="H142" s="16"/>
-      <c r="I142" s="16"/>
-      <c r="J142" s="16"/>
-      <c r="K142" s="16"/>
+      <c r="E142" s="23">
+        <v>475238.59399999998</v>
+      </c>
+      <c r="F142" s="23">
+        <v>539968.23499999999</v>
+      </c>
+      <c r="G142" s="16">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="H142" s="16">
+        <v>2.343</v>
+      </c>
+      <c r="I142" s="16">
+        <v>0.45900000000000002</v>
+      </c>
+      <c r="J142" s="16">
+        <v>0.48</v>
+      </c>
+      <c r="K142" s="16">
+        <v>0.25900000000000001</v>
+      </c>
       <c r="L142" s="16"/>
       <c r="M142" s="16"/>
       <c r="N142" s="16"/>
@@ -4518,18 +5706,32 @@
       <c r="D143" s="6">
         <v>1.9799999999999998</v>
       </c>
-      <c r="E143" s="6"/>
-      <c r="F143" s="29"/>
-      <c r="G143" s="29"/>
-      <c r="H143" s="16"/>
-      <c r="I143" s="16"/>
-      <c r="J143" s="16"/>
-      <c r="K143" s="16"/>
+      <c r="E143" s="23">
+        <v>475238.29599999997</v>
+      </c>
+      <c r="F143" s="23">
+        <v>539970.16</v>
+      </c>
+      <c r="G143" s="16">
+        <v>0.93</v>
+      </c>
+      <c r="H143" s="16">
+        <v>4.4240000000000004</v>
+      </c>
+      <c r="I143" s="16">
+        <v>1.3220000000000001</v>
+      </c>
+      <c r="J143" s="16">
+        <v>1.3149999999999999</v>
+      </c>
+      <c r="K143" s="16">
+        <v>1.1619999999999999</v>
+      </c>
       <c r="L143" s="16"/>
       <c r="M143" s="16"/>
       <c r="N143" s="16"/>
       <c r="O143" s="16"/>
-      <c r="P143" s="16"/>
+      <c r="P143" s="6"/>
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A144" s="5">
@@ -4544,18 +5746,32 @@
       <c r="D144" s="6">
         <v>2.3800000000000003</v>
       </c>
-      <c r="E144" s="6"/>
-      <c r="F144" s="29"/>
-      <c r="G144" s="29"/>
-      <c r="H144" s="16"/>
-      <c r="I144" s="16"/>
-      <c r="J144" s="16"/>
-      <c r="K144" s="16"/>
+      <c r="E144" s="23">
+        <v>475238.82400000002</v>
+      </c>
+      <c r="F144" s="23">
+        <v>539970.32299999997</v>
+      </c>
+      <c r="G144" s="16">
+        <v>1.1539999999999999</v>
+      </c>
+      <c r="H144" s="16">
+        <v>5.1929999999999996</v>
+      </c>
+      <c r="I144" s="16">
+        <v>1.56</v>
+      </c>
+      <c r="J144" s="16">
+        <v>1.4790000000000001</v>
+      </c>
+      <c r="K144" s="16">
+        <v>1.071</v>
+      </c>
       <c r="L144" s="16"/>
       <c r="M144" s="16"/>
       <c r="N144" s="16"/>
       <c r="O144" s="16"/>
-      <c r="P144" s="16"/>
+      <c r="P144" s="6"/>
     </row>
     <row r="145" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A145" s="9">
@@ -4570,18 +5786,32 @@
       <c r="D145" s="6">
         <v>1.74</v>
       </c>
-      <c r="E145" s="6"/>
-      <c r="F145" s="29"/>
-      <c r="G145" s="29"/>
-      <c r="H145" s="16"/>
-      <c r="I145" s="16"/>
-      <c r="J145" s="16"/>
-      <c r="K145" s="16"/>
+      <c r="E145" s="23">
+        <v>475238.52799999999</v>
+      </c>
+      <c r="F145" s="23">
+        <v>539969.87</v>
+      </c>
+      <c r="G145" s="16">
+        <v>0.747</v>
+      </c>
+      <c r="H145" s="16">
+        <v>4.165</v>
+      </c>
+      <c r="I145" s="16">
+        <v>1.474</v>
+      </c>
+      <c r="J145" s="16">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="K145" s="16">
+        <v>0.998</v>
+      </c>
       <c r="L145" s="16"/>
       <c r="M145" s="16"/>
       <c r="N145" s="16"/>
       <c r="O145" s="16"/>
-      <c r="P145" s="16"/>
+      <c r="P145" s="6"/>
     </row>
     <row r="146" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A146" s="9">
@@ -4596,9 +5826,9 @@
       <c r="D146" s="6">
         <v>0.90999999999999992</v>
       </c>
-      <c r="E146" s="16"/>
-      <c r="F146" s="29"/>
-      <c r="G146" s="29"/>
+      <c r="E146" s="23"/>
+      <c r="F146" s="23"/>
+      <c r="G146" s="16"/>
       <c r="H146" s="16"/>
       <c r="I146" s="16"/>
       <c r="J146" s="16"/>
@@ -4607,7 +5837,9 @@
       <c r="M146" s="16"/>
       <c r="N146" s="16"/>
       <c r="O146" s="16"/>
-      <c r="P146" s="16"/>
+      <c r="P146" s="16" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="147" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A147" s="9">
@@ -4622,9 +5854,9 @@
       <c r="D147" s="6">
         <v>0.8</v>
       </c>
-      <c r="E147" s="16"/>
-      <c r="F147" s="29"/>
-      <c r="G147" s="29"/>
+      <c r="E147" s="23"/>
+      <c r="F147" s="23"/>
+      <c r="G147" s="16"/>
       <c r="H147" s="16"/>
       <c r="I147" s="16"/>
       <c r="J147" s="16"/>
@@ -4633,7 +5865,9 @@
       <c r="M147" s="16"/>
       <c r="N147" s="16"/>
       <c r="O147" s="16"/>
-      <c r="P147" s="16"/>
+      <c r="P147" s="16" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="148" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A148" s="9">
@@ -4648,13 +5882,27 @@
       <c r="D148" s="6">
         <v>0.76</v>
       </c>
-      <c r="E148" s="16"/>
-      <c r="F148" s="29"/>
-      <c r="G148" s="29"/>
-      <c r="H148" s="16"/>
-      <c r="I148" s="16"/>
-      <c r="J148" s="16"/>
-      <c r="K148" s="16"/>
+      <c r="E148" s="23">
+        <v>475238.74900000001</v>
+      </c>
+      <c r="F148" s="23">
+        <v>539968.89399999997</v>
+      </c>
+      <c r="G148" s="16">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="H148" s="16">
+        <v>0.497</v>
+      </c>
+      <c r="I148" s="16">
+        <v>0.113</v>
+      </c>
+      <c r="J148" s="16">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="K148" s="16">
+        <v>0.16500000000000001</v>
+      </c>
       <c r="L148" s="16"/>
       <c r="M148" s="16"/>
       <c r="N148" s="16"/>
@@ -4674,13 +5922,27 @@
       <c r="D149" s="6">
         <v>0.7</v>
       </c>
-      <c r="E149" s="16"/>
-      <c r="F149" s="29"/>
-      <c r="G149" s="29"/>
-      <c r="H149" s="16"/>
-      <c r="I149" s="16"/>
-      <c r="J149" s="16"/>
-      <c r="K149" s="16"/>
+      <c r="E149" s="23">
+        <v>475238.64799999999</v>
+      </c>
+      <c r="F149" s="23">
+        <v>539968.853</v>
+      </c>
+      <c r="G149" s="16">
+        <v>0</v>
+      </c>
+      <c r="H149" s="16">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="I149" s="16">
+        <v>1.6E-2</v>
+      </c>
+      <c r="J149" s="16">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="K149" s="16">
+        <v>1.2999999999999999E-2</v>
+      </c>
       <c r="L149" s="16"/>
       <c r="M149" s="16"/>
       <c r="N149" s="16"/>
@@ -4700,9 +5962,9 @@
       <c r="D150" s="6">
         <v>0.92999999999999994</v>
       </c>
-      <c r="E150" s="16"/>
-      <c r="F150" s="29"/>
-      <c r="G150" s="29"/>
+      <c r="E150" s="23"/>
+      <c r="F150" s="23"/>
+      <c r="G150" s="16"/>
       <c r="H150" s="16"/>
       <c r="I150" s="16"/>
       <c r="J150" s="16"/>
@@ -4711,7 +5973,9 @@
       <c r="M150" s="16"/>
       <c r="N150" s="16"/>
       <c r="O150" s="16"/>
-      <c r="P150" s="16"/>
+      <c r="P150" s="16" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="151" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A151" s="10">
@@ -4726,13 +5990,27 @@
       <c r="D151" s="6">
         <v>0.73</v>
       </c>
-      <c r="E151" s="16"/>
-      <c r="F151" s="29"/>
-      <c r="G151" s="29"/>
-      <c r="H151" s="16"/>
-      <c r="I151" s="16"/>
-      <c r="J151" s="16"/>
-      <c r="K151" s="16"/>
+      <c r="E151" s="23">
+        <v>475238.59</v>
+      </c>
+      <c r="F151" s="23">
+        <v>539968.48</v>
+      </c>
+      <c r="G151" s="16">
+        <v>1E-3</v>
+      </c>
+      <c r="H151" s="16">
+        <v>0.155</v>
+      </c>
+      <c r="I151" s="16">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="J151" s="16">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="K151" s="16">
+        <v>5.3999999999999999E-2</v>
+      </c>
       <c r="L151" s="16"/>
       <c r="M151" s="16"/>
       <c r="N151" s="16"/>
@@ -4741,21 +6019,21 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="F122:G122"/>
-    <mergeCell ref="H122:L122"/>
-    <mergeCell ref="M122:P122"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="H67:L67"/>
-    <mergeCell ref="M67:P67"/>
-    <mergeCell ref="F102:G102"/>
-    <mergeCell ref="H102:L102"/>
-    <mergeCell ref="M102:P102"/>
+    <mergeCell ref="E122:F122"/>
+    <mergeCell ref="G122:K122"/>
+    <mergeCell ref="L122:O122"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="G67:K67"/>
+    <mergeCell ref="L67:O67"/>
+    <mergeCell ref="E102:F102"/>
+    <mergeCell ref="G102:K102"/>
+    <mergeCell ref="L102:O102"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="A52:D52"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:K1"/>
     <mergeCell ref="B67:D67"/>
     <mergeCell ref="A88:D88"/>
     <mergeCell ref="B102:D102"/>
@@ -4763,5 +6041,6 @@
     <mergeCell ref="A140:D140"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>